--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3348203.709309301</v>
+        <v>-3348882.965979265</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5600077.191480964</v>
+        <v>5600077.19148096</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736558</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4427899637695</v>
+        <v>53.83795726423082</v>
       </c>
       <c r="C11" t="n">
-        <v>204.4541069214513</v>
+        <v>204.4541069214522</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>236.3493646238619</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>237.6699315459144</v>
+        <v>237.6699315459154</v>
       </c>
       <c r="H11" t="n">
-        <v>92.47222125163718</v>
+        <v>149.5579236355869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.77294412754713</v>
+        <v>45.7729441275481</v>
       </c>
       <c r="U11" t="n">
-        <v>78.62715268604686</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>204.5495249146531</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>215.9461227108519</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.41154230737833</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1512,10 +1512,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>67.98653030655791</v>
+        <v>22.27750408191488</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.93579892784751</v>
+        <v>31.71494241937067</v>
       </c>
     </row>
     <row r="13">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.05950083846659</v>
+        <v>8.059500838467557</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.12269904515097</v>
+        <v>33.12269904515193</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01254780844211</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U13" t="n">
-        <v>152.7434313637109</v>
+        <v>110.6430318713826</v>
       </c>
       <c r="V13" t="n">
-        <v>84.46763723809218</v>
+        <v>144.4746178969711</v>
       </c>
       <c r="W13" t="n">
-        <v>109.6345233087054</v>
+        <v>109.6345233087064</v>
       </c>
       <c r="X13" t="n">
-        <v>55.27962530450856</v>
+        <v>55.27962530450952</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15449306057624</v>
+        <v>46.15449306057721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>216.4427899637704</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4541069214514</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>199.7890694015161</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>236.3493646238628</v>
       </c>
       <c r="G14" t="n">
-        <v>237.6699315459146</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>149.557923635586</v>
+        <v>149.5579236355868</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.77294412754728</v>
+        <v>45.77294412754804</v>
       </c>
       <c r="U14" t="n">
-        <v>53.83795726422542</v>
+        <v>78.62715268604776</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>185.2492666819064</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5495249146523</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.9461227108511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.41154230737833</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T15" t="n">
-        <v>185.4768923348651</v>
+        <v>11.81657817579658</v>
       </c>
       <c r="U15" t="n">
-        <v>216.28827711433</v>
+        <v>200.8480755820308</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>52.45135216708084</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>65.24239591995453</v>
       </c>
       <c r="X15" t="n">
-        <v>70.24791798456478</v>
+        <v>22.27750408191483</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.93579892784766</v>
+        <v>16.93579892784842</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>8.0595008384675</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>60.00698065887845</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.00698065888393</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.12269904515111</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01254780844226</v>
+        <v>56.01254780844302</v>
       </c>
       <c r="U16" t="n">
-        <v>110.6430318713818</v>
+        <v>110.6430318713826</v>
       </c>
       <c r="V16" t="n">
-        <v>84.46763723809232</v>
+        <v>84.46763723809309</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6345233087056</v>
+        <v>109.6345233087063</v>
       </c>
       <c r="X16" t="n">
-        <v>55.2796253045087</v>
+        <v>55.27962530450947</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15449306057639</v>
+        <v>46.15449306057715</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115.4434584561717</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C17" t="n">
-        <v>103.4547754138534</v>
+        <v>103.4547754138544</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43607945838141</v>
+        <v>94.43607945838238</v>
       </c>
       <c r="E17" t="n">
-        <v>116.178217028287</v>
+        <v>116.1782170282879</v>
       </c>
       <c r="F17" t="n">
-        <v>135.3500331162641</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G17" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H17" t="n">
-        <v>48.55859212798808</v>
+        <v>48.55859212798905</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>58.94983569635082</v>
+        <v>58.94983569635178</v>
       </c>
       <c r="W17" t="n">
-        <v>84.24993517430772</v>
+        <v>84.24993517430869</v>
       </c>
       <c r="X17" t="n">
-        <v>103.5501934070543</v>
+        <v>103.5501934070553</v>
       </c>
       <c r="Y17" t="n">
-        <v>114.9467912032531</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>10.26259940703873</v>
+        <v>128.0934216308049</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H18" t="n">
         <v>95.77238994002833</v>
       </c>
       <c r="I18" t="n">
-        <v>56.41154230737833</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>145.1823065335695</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>229.6728619675116</v>
       </c>
       <c r="U19" t="n">
-        <v>9.643700363783868</v>
+        <v>284.3033460304511</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>174.4042324090966</v>
       </c>
       <c r="W19" t="n">
-        <v>10.65690010124296</v>
+        <v>8.63519180110859</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.4434584561717</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4547754138534</v>
+        <v>103.4547754138544</v>
       </c>
       <c r="D20" t="n">
-        <v>94.43607945838141</v>
+        <v>94.43607945838238</v>
       </c>
       <c r="E20" t="n">
-        <v>116.178217028287</v>
+        <v>116.1782170282879</v>
       </c>
       <c r="F20" t="n">
-        <v>135.3500331162641</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H20" t="n">
-        <v>48.55859212798811</v>
+        <v>48.55859212798907</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.94983569635082</v>
+        <v>58.94983569635178</v>
       </c>
       <c r="W20" t="n">
-        <v>84.24993517430772</v>
+        <v>84.24993517430869</v>
       </c>
       <c r="X20" t="n">
-        <v>103.5501934070543</v>
+        <v>103.5501934070553</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.9467912032531</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>28.88239930814006</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2175,7 +2175,7 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H21" t="n">
-        <v>3.400739733881992</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I21" t="n">
         <v>56.41154230737833</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>162.3398230836917</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>15.13815342172974</v>
       </c>
       <c r="R22" t="n">
-        <v>5.935986062340747</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.643700363783868</v>
+        <v>9.643700363784834</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>8.635191801107624</v>
+        <v>8.63519180110859</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.4434584561717</v>
+        <v>115.4434584561727</v>
       </c>
       <c r="C23" t="n">
-        <v>103.4547754138534</v>
+        <v>103.4547754138544</v>
       </c>
       <c r="D23" t="n">
-        <v>94.43607945838141</v>
+        <v>94.43607945838238</v>
       </c>
       <c r="E23" t="n">
-        <v>116.178217028287</v>
+        <v>116.1782170282879</v>
       </c>
       <c r="F23" t="n">
-        <v>135.3500331162641</v>
+        <v>135.3500331162651</v>
       </c>
       <c r="G23" t="n">
-        <v>136.6706000383166</v>
+        <v>136.6706000383176</v>
       </c>
       <c r="H23" t="n">
-        <v>48.55859212798808</v>
+        <v>48.55859212798907</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>58.94983569635082</v>
+        <v>58.94983569635178</v>
       </c>
       <c r="W23" t="n">
-        <v>84.24993517430772</v>
+        <v>84.24993517430869</v>
       </c>
       <c r="X23" t="n">
-        <v>103.5501934070543</v>
+        <v>103.5501934070553</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.9467912032531</v>
+        <v>114.9467912032541</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>31.74023238217511</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>56.41154230737833</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>86.33983911678332</v>
       </c>
     </row>
     <row r="25">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>106.6119526483808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>15.13815342172974</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6689122231617</v>
       </c>
       <c r="S25" t="n">
-        <v>67.09273795110494</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U25" t="n">
-        <v>9.643700363783868</v>
+        <v>9.643700363784834</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>8.635191801107624</v>
+        <v>8.63519180110859</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.5711157271349</v>
+        <v>212.5711157271342</v>
       </c>
       <c r="C35" t="n">
-        <v>200.5824326848166</v>
+        <v>200.5824326848159</v>
       </c>
       <c r="D35" t="n">
-        <v>191.5637367293446</v>
+        <v>191.5637367293439</v>
       </c>
       <c r="E35" t="n">
-        <v>213.3058742992501</v>
+        <v>213.3058742992494</v>
       </c>
       <c r="F35" t="n">
-        <v>232.4776903872273</v>
+        <v>232.4776903872266</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7982573092798</v>
+        <v>233.7982573092791</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6862493989513</v>
+        <v>145.6862493989506</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.90126989091252</v>
+        <v>41.90126989091178</v>
       </c>
       <c r="U35" t="n">
-        <v>74.75547844941224</v>
+        <v>74.7554784494115</v>
       </c>
       <c r="V35" t="n">
-        <v>156.077492967314</v>
+        <v>156.0774929673133</v>
       </c>
       <c r="W35" t="n">
-        <v>181.3775924452709</v>
+        <v>181.3775924452702</v>
       </c>
       <c r="X35" t="n">
-        <v>200.6778506780175</v>
+        <v>200.6778506780168</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.0744484742163</v>
+        <v>212.0744484742156</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>68.84285196283939</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I36" t="n">
         <v>56.41154230737833</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.1823065335695</v>
+        <v>29.97196401941268</v>
       </c>
       <c r="T36" t="n">
         <v>185.4768923348651</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.187826601831972</v>
+        <v>4.187826601831233</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.25102480851635</v>
+        <v>29.25102480851561</v>
       </c>
       <c r="T37" t="n">
-        <v>52.1408735718075</v>
+        <v>52.14087357180676</v>
       </c>
       <c r="U37" t="n">
-        <v>106.7713576347471</v>
+        <v>106.7713576347463</v>
       </c>
       <c r="V37" t="n">
-        <v>80.59596300145756</v>
+        <v>80.59596300145682</v>
       </c>
       <c r="W37" t="n">
-        <v>218.8623635425871</v>
+        <v>105.7628490720701</v>
       </c>
       <c r="X37" t="n">
-        <v>51.40795106787394</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.28281882394162</v>
+        <v>129.3915191392733</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.5711157271349</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C38" t="n">
-        <v>200.5824326848166</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D38" t="n">
-        <v>191.5637367293446</v>
+        <v>191.5637367293437</v>
       </c>
       <c r="E38" t="n">
-        <v>213.3058742992501</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F38" t="n">
-        <v>232.4776903872273</v>
+        <v>232.4776903872264</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7982573092798</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H38" t="n">
-        <v>145.6862493989513</v>
+        <v>145.6862493989504</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.90126989091252</v>
+        <v>41.90126989091164</v>
       </c>
       <c r="U38" t="n">
-        <v>74.75547844941224</v>
+        <v>74.75547844941136</v>
       </c>
       <c r="V38" t="n">
-        <v>156.077492967314</v>
+        <v>156.0774929673131</v>
       </c>
       <c r="W38" t="n">
-        <v>181.3775924452709</v>
+        <v>181.37759244527</v>
       </c>
       <c r="X38" t="n">
-        <v>200.6778506780175</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.0744484742163</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>125.2543942702173</v>
+        <v>11.90304853997888</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.41154230737833</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>145.1823065335695</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.187826601831972</v>
+        <v>4.187826601831091</v>
       </c>
       <c r="C40" t="n">
-        <v>129.2899180364666</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>113.6848402865577</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.13815342172974</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>29.25102480851635</v>
+        <v>29.25102480851547</v>
       </c>
       <c r="T40" t="n">
-        <v>52.1408735718075</v>
+        <v>52.14087357180662</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7713576347471</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V40" t="n">
-        <v>80.59596300145756</v>
+        <v>80.59596300145668</v>
       </c>
       <c r="W40" t="n">
-        <v>105.7628490720708</v>
+        <v>105.7628490720699</v>
       </c>
       <c r="X40" t="n">
-        <v>51.40795106787394</v>
+        <v>51.40795106787306</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.28281882394162</v>
+        <v>42.28281882394074</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.5711157271349</v>
+        <v>212.571115727134</v>
       </c>
       <c r="C41" t="n">
-        <v>200.5824326848166</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D41" t="n">
-        <v>191.5637367293446</v>
+        <v>191.5637367293437</v>
       </c>
       <c r="E41" t="n">
-        <v>213.3058742992501</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F41" t="n">
-        <v>232.4776903872273</v>
+        <v>232.4776903872264</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7982573092798</v>
+        <v>233.7982573092789</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6862493989513</v>
+        <v>145.6862493989504</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.90126989091252</v>
+        <v>41.90126989091164</v>
       </c>
       <c r="U41" t="n">
-        <v>74.75547844941224</v>
+        <v>74.75547844941136</v>
       </c>
       <c r="V41" t="n">
-        <v>156.077492967314</v>
+        <v>156.0774929673131</v>
       </c>
       <c r="W41" t="n">
-        <v>181.3775924452709</v>
+        <v>181.37759244527</v>
       </c>
       <c r="X41" t="n">
-        <v>200.6778506780175</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.0744484742163</v>
+        <v>212.0744484742154</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>68.84285196283895</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I42" t="n">
         <v>56.41154230737833</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T42" t="n">
-        <v>185.4768923348651</v>
+        <v>70.26654982070818</v>
       </c>
       <c r="U42" t="n">
         <v>216.28827711433</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.187826601831972</v>
+        <v>4.187826601831091</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>62.2211326519468</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.13815342172974</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.25102480851635</v>
+        <v>29.25102480851547</v>
       </c>
       <c r="T43" t="n">
-        <v>52.1408735718075</v>
+        <v>52.14087357180662</v>
       </c>
       <c r="U43" t="n">
-        <v>106.7713576347471</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V43" t="n">
-        <v>80.59596300145756</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>105.7628490720708</v>
+        <v>192.8715493874033</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>51.40795106787306</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.28281882394162</v>
+        <v>42.28281882394074</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.5711157271348</v>
+        <v>212.5711157271341</v>
       </c>
       <c r="C44" t="n">
-        <v>200.5824326848165</v>
+        <v>200.5824326848158</v>
       </c>
       <c r="D44" t="n">
-        <v>191.5637367293445</v>
+        <v>191.5637367293438</v>
       </c>
       <c r="E44" t="n">
-        <v>213.30587429925</v>
+        <v>213.3058742992493</v>
       </c>
       <c r="F44" t="n">
-        <v>232.4776903872272</v>
+        <v>232.4776903872265</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7982573092796</v>
+        <v>233.798257309279</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6862493989512</v>
+        <v>145.6862493989505</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.90126989091237</v>
+        <v>41.90126989091169</v>
       </c>
       <c r="U44" t="n">
-        <v>74.7554784494121</v>
+        <v>74.75547844941141</v>
       </c>
       <c r="V44" t="n">
-        <v>156.0774929673139</v>
+        <v>156.0774929673132</v>
       </c>
       <c r="W44" t="n">
-        <v>181.3775924452708</v>
+        <v>181.3775924452701</v>
       </c>
       <c r="X44" t="n">
-        <v>200.6778506780174</v>
+        <v>200.6778506780167</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.0744484742162</v>
+        <v>212.0744484742155</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4068,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>68.84285196283895</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I45" t="n">
         <v>56.41154230737833</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.83258651717897</v>
+        <v>29.97196401941268</v>
       </c>
       <c r="S45" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>185.4768923348651</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.18782660183183</v>
+        <v>4.187826601831148</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>113.684840286557</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>73.07379338540719</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>29.25102480851621</v>
+        <v>29.25102480851552</v>
       </c>
       <c r="T46" t="n">
-        <v>52.14087357180735</v>
+        <v>52.14087357180667</v>
       </c>
       <c r="U46" t="n">
-        <v>106.7713576347469</v>
+        <v>106.7713576347462</v>
       </c>
       <c r="V46" t="n">
-        <v>80.59596300145742</v>
+        <v>80.59596300145674</v>
       </c>
       <c r="W46" t="n">
-        <v>105.7628490720707</v>
+        <v>105.76284907207</v>
       </c>
       <c r="X46" t="n">
-        <v>51.4079510678738</v>
+        <v>51.40795106787311</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.28281882394148</v>
+        <v>42.2828188239408</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>801.6517028225234</v>
+        <v>620.5772965195838</v>
       </c>
       <c r="C11" t="n">
-        <v>595.1324029018655</v>
+        <v>414.057996598925</v>
       </c>
       <c r="D11" t="n">
-        <v>595.1324029018655</v>
+        <v>414.057996598925</v>
       </c>
       <c r="E11" t="n">
-        <v>595.1324029018655</v>
+        <v>414.057996598925</v>
       </c>
       <c r="F11" t="n">
-        <v>356.3956709585706</v>
+        <v>414.057996598925</v>
       </c>
       <c r="G11" t="n">
-        <v>116.3250330334045</v>
+        <v>173.987358673758</v>
       </c>
       <c r="H11" t="n">
-        <v>22.91874894084164</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I11" t="n">
-        <v>22.91874894084164</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J11" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="K11" t="n">
-        <v>146.3995003278775</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="L11" t="n">
-        <v>146.3995003278775</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="M11" t="n">
-        <v>430.0190184707928</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="N11" t="n">
-        <v>430.0190184707928</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="O11" t="n">
-        <v>702.3825108831776</v>
+        <v>702.3825108831859</v>
       </c>
       <c r="P11" t="n">
-        <v>986.0020290260928</v>
+        <v>986.002029026104</v>
       </c>
       <c r="Q11" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R11" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="S11" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="T11" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.70214994356</v>
       </c>
       <c r="U11" t="n">
-        <v>1020.280783594008</v>
+        <v>1099.70214994356</v>
       </c>
       <c r="V11" t="n">
-        <v>1020.280783594008</v>
+        <v>1099.70214994356</v>
       </c>
       <c r="W11" t="n">
-        <v>1020.280783594008</v>
+        <v>1099.70214994356</v>
       </c>
       <c r="X11" t="n">
-        <v>1020.280783594008</v>
+        <v>893.0864682115866</v>
       </c>
       <c r="Y11" t="n">
-        <v>1020.280783594008</v>
+        <v>674.9590715339584</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184.622421699887</v>
+        <v>176.639892625091</v>
       </c>
       <c r="C12" t="n">
-        <v>22.91874894084164</v>
+        <v>176.639892625091</v>
       </c>
       <c r="D12" t="n">
-        <v>22.91874894084164</v>
+        <v>176.639892625091</v>
       </c>
       <c r="E12" t="n">
-        <v>22.91874894084164</v>
+        <v>176.639892625091</v>
       </c>
       <c r="F12" t="n">
-        <v>22.91874894084164</v>
+        <v>176.639892625091</v>
       </c>
       <c r="G12" t="n">
-        <v>22.91874894084164</v>
+        <v>176.639892625091</v>
       </c>
       <c r="H12" t="n">
-        <v>22.91874894084164</v>
+        <v>79.90010480688058</v>
       </c>
       <c r="I12" t="n">
-        <v>22.91874894084164</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J12" t="n">
-        <v>113.8353453427567</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K12" t="n">
-        <v>113.8353453427567</v>
+        <v>304.8163121699845</v>
       </c>
       <c r="L12" t="n">
-        <v>397.4548634856719</v>
+        <v>304.8163121699845</v>
       </c>
       <c r="M12" t="n">
-        <v>397.4548634856719</v>
+        <v>588.4358303129025</v>
       </c>
       <c r="N12" t="n">
-        <v>663.1183272932384</v>
+        <v>872.0553484558204</v>
       </c>
       <c r="O12" t="n">
-        <v>946.7378454361536</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="P12" t="n">
-        <v>946.7378454361536</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="Q12" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R12" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="S12" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="T12" t="n">
-        <v>958.5870507442384</v>
+        <v>919.3622158784123</v>
       </c>
       <c r="U12" t="n">
-        <v>740.1140435580464</v>
+        <v>700.8892086922203</v>
       </c>
       <c r="V12" t="n">
-        <v>511.7184210063804</v>
+        <v>472.4935861405543</v>
       </c>
       <c r="W12" t="n">
-        <v>270.4025522396904</v>
+        <v>231.1777173738643</v>
       </c>
       <c r="X12" t="n">
-        <v>201.7292893037733</v>
+        <v>208.6751879981927</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.622421699887</v>
+        <v>176.639892625091</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.4206634111699</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="C13" t="n">
-        <v>216.4206634111699</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="D13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="E13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="F13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="G13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="H13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I13" t="n">
-        <v>63.34877023893263</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J13" t="n">
-        <v>22.91874894084164</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K13" t="n">
-        <v>88.13463834193587</v>
+        <v>88.1346383419361</v>
       </c>
       <c r="L13" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344958</v>
       </c>
       <c r="M13" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074952</v>
       </c>
       <c r="N13" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792423</v>
       </c>
       <c r="O13" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278661</v>
       </c>
       <c r="P13" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509507</v>
       </c>
       <c r="Q13" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="R13" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="S13" t="n">
-        <v>733.9476926258185</v>
+        <v>733.9476926258177</v>
       </c>
       <c r="T13" t="n">
-        <v>677.36936150618</v>
+        <v>501.9549027596444</v>
       </c>
       <c r="U13" t="n">
-        <v>523.0830671994013</v>
+        <v>390.1942645057225</v>
       </c>
       <c r="V13" t="n">
-        <v>437.7622215043586</v>
+        <v>244.2603070340345</v>
       </c>
       <c r="W13" t="n">
-        <v>327.0202787682925</v>
+        <v>133.5183642979674</v>
       </c>
       <c r="X13" t="n">
-        <v>271.1822734102031</v>
+        <v>77.68035893987698</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.561573349015</v>
+        <v>31.05965887868788</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620.5772965195813</v>
+        <v>614.5312314266662</v>
       </c>
       <c r="C14" t="n">
-        <v>414.0579965989233</v>
+        <v>614.5312314266662</v>
       </c>
       <c r="D14" t="n">
-        <v>414.0579965989233</v>
+        <v>614.5312314266662</v>
       </c>
       <c r="E14" t="n">
-        <v>414.0579965989233</v>
+        <v>412.7240906170536</v>
       </c>
       <c r="F14" t="n">
-        <v>414.0579965989233</v>
+        <v>173.9873586737578</v>
       </c>
       <c r="G14" t="n">
-        <v>173.9873586737569</v>
+        <v>173.9873586737578</v>
       </c>
       <c r="H14" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I14" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J14" t="n">
-        <v>22.91874894084165</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="K14" t="n">
-        <v>306.538267083757</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="L14" t="n">
-        <v>590.1577852266723</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="M14" t="n">
-        <v>702.3825108831779</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="N14" t="n">
-        <v>702.3825108831779</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="O14" t="n">
-        <v>986.0020290260933</v>
+        <v>702.3825108831859</v>
       </c>
       <c r="P14" t="n">
-        <v>986.0020290260933</v>
+        <v>986.002029026104</v>
       </c>
       <c r="Q14" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R14" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="S14" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="T14" t="n">
-        <v>1099.70214994355</v>
+        <v>1099.70214994356</v>
       </c>
       <c r="U14" t="n">
-        <v>1045.320374929181</v>
+        <v>1020.280783594017</v>
       </c>
       <c r="V14" t="n">
-        <v>1045.320374929181</v>
+        <v>1020.280783594017</v>
       </c>
       <c r="W14" t="n">
-        <v>1045.320374929181</v>
+        <v>833.1603121981515</v>
       </c>
       <c r="X14" t="n">
-        <v>838.7046931972086</v>
+        <v>833.1603121981515</v>
       </c>
       <c r="Y14" t="n">
-        <v>620.5772965195813</v>
+        <v>833.1603121981515</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.91874894084165</v>
+        <v>586.7590653194927</v>
       </c>
       <c r="C15" t="n">
-        <v>22.91874894084165</v>
+        <v>586.7590653194927</v>
       </c>
       <c r="D15" t="n">
-        <v>22.91874894084165</v>
+        <v>586.7590653194927</v>
       </c>
       <c r="E15" t="n">
-        <v>22.91874894084165</v>
+        <v>439.731055376364</v>
       </c>
       <c r="F15" t="n">
-        <v>22.91874894084165</v>
+        <v>305.0372573262384</v>
       </c>
       <c r="G15" t="n">
-        <v>22.91874894084165</v>
+        <v>176.639892625091</v>
       </c>
       <c r="H15" t="n">
-        <v>22.91874894084165</v>
+        <v>79.90010480688058</v>
       </c>
       <c r="I15" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8353453427567</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K15" t="n">
-        <v>395.7329085718993</v>
+        <v>304.8163121699845</v>
       </c>
       <c r="L15" t="n">
-        <v>395.7329085718993</v>
+        <v>588.4358303129025</v>
       </c>
       <c r="M15" t="n">
-        <v>395.7329085718993</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="N15" t="n">
-        <v>578.6984107562516</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="O15" t="n">
-        <v>862.317928899167</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="P15" t="n">
-        <v>1145.937447042082</v>
+        <v>946.7378454361648</v>
       </c>
       <c r="Q15" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R15" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="S15" t="n">
-        <v>1145.937447042082</v>
+        <v>960.0638176979028</v>
       </c>
       <c r="T15" t="n">
-        <v>958.5870507442388</v>
+        <v>948.127880146593</v>
       </c>
       <c r="U15" t="n">
-        <v>740.1140435580469</v>
+        <v>745.2510361243397</v>
       </c>
       <c r="V15" t="n">
-        <v>511.7184210063808</v>
+        <v>692.2698723192076</v>
       </c>
       <c r="W15" t="n">
-        <v>270.4025522396909</v>
+        <v>626.3684622990515</v>
       </c>
       <c r="X15" t="n">
-        <v>199.4450593259891</v>
+        <v>603.86593292338</v>
       </c>
       <c r="Y15" t="n">
-        <v>182.3381917221026</v>
+        <v>586.7590653194927</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.53186071749209</v>
+        <v>83.53186071748677</v>
       </c>
       <c r="C16" t="n">
-        <v>83.53186071749209</v>
+        <v>83.53186071748677</v>
       </c>
       <c r="D16" t="n">
-        <v>83.53186071749209</v>
+        <v>83.53186071748677</v>
       </c>
       <c r="E16" t="n">
-        <v>83.53186071749209</v>
+        <v>83.53186071748677</v>
       </c>
       <c r="F16" t="n">
-        <v>83.53186071749209</v>
+        <v>83.53186071748677</v>
       </c>
       <c r="G16" t="n">
-        <v>83.53186071749209</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="H16" t="n">
-        <v>83.53186071749209</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I16" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J16" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K16" t="n">
-        <v>88.13463834193588</v>
+        <v>88.1346383419361</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344958</v>
       </c>
       <c r="M16" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074952</v>
       </c>
       <c r="N16" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792423</v>
       </c>
       <c r="O16" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278661</v>
       </c>
       <c r="P16" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509507</v>
       </c>
       <c r="Q16" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="R16" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="S16" t="n">
-        <v>733.9476926258184</v>
+        <v>558.5332338792839</v>
       </c>
       <c r="T16" t="n">
-        <v>677.3693615061798</v>
+        <v>501.9549027596445</v>
       </c>
       <c r="U16" t="n">
-        <v>565.6087232522588</v>
+        <v>390.1942645057227</v>
       </c>
       <c r="V16" t="n">
-        <v>480.287877557216</v>
+        <v>304.8734188106791</v>
       </c>
       <c r="W16" t="n">
-        <v>369.5459348211498</v>
+        <v>194.1314760746121</v>
       </c>
       <c r="X16" t="n">
-        <v>313.7079294630602</v>
+        <v>138.2934707165218</v>
       </c>
       <c r="Y16" t="n">
-        <v>267.0872294018719</v>
+        <v>91.67277065533273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.9776349843678</v>
+        <v>663.9776349843733</v>
       </c>
       <c r="C17" t="n">
-        <v>559.4778618390612</v>
+        <v>559.4778618390658</v>
       </c>
       <c r="D17" t="n">
-        <v>464.0878825881709</v>
+        <v>464.0878825881745</v>
       </c>
       <c r="E17" t="n">
-        <v>346.7361482161639</v>
+        <v>346.7361482161664</v>
       </c>
       <c r="F17" t="n">
-        <v>210.0189430482204</v>
+        <v>210.0189430482219</v>
       </c>
       <c r="G17" t="n">
-        <v>71.96783189840538</v>
+        <v>71.96783189840656</v>
       </c>
       <c r="H17" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I17" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J17" t="n">
-        <v>22.91874894084165</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="K17" t="n">
-        <v>22.91874894084165</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="L17" t="n">
-        <v>22.91874894084165</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="M17" t="n">
-        <v>306.538267083757</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="N17" t="n">
-        <v>590.1577852266723</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="O17" t="n">
-        <v>873.7773033695877</v>
+        <v>702.3825108831859</v>
       </c>
       <c r="P17" t="n">
-        <v>986.0020290260933</v>
+        <v>986.002029026104</v>
       </c>
       <c r="Q17" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R17" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="S17" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="T17" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="U17" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="V17" t="n">
-        <v>1086.39215845991</v>
+        <v>1086.39215845992</v>
       </c>
       <c r="W17" t="n">
-        <v>1001.291213839397</v>
+        <v>1001.291213839406</v>
       </c>
       <c r="X17" t="n">
-        <v>896.6950588827767</v>
+        <v>896.6950588827841</v>
       </c>
       <c r="Y17" t="n">
-        <v>780.5871889805009</v>
+        <v>780.5871889805072</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>325.8447916621906</v>
+        <v>539.1468687958155</v>
       </c>
       <c r="C18" t="n">
-        <v>325.8447916621906</v>
+        <v>377.4431960367702</v>
       </c>
       <c r="D18" t="n">
-        <v>187.0061546524026</v>
+        <v>377.4431960367702</v>
       </c>
       <c r="E18" t="n">
-        <v>176.6398926250908</v>
+        <v>248.0559014601997</v>
       </c>
       <c r="F18" t="n">
-        <v>176.6398926250908</v>
+        <v>248.0559014601997</v>
       </c>
       <c r="G18" t="n">
-        <v>176.6398926250908</v>
+        <v>119.6585367590523</v>
       </c>
       <c r="H18" t="n">
-        <v>79.90010480688036</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I18" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J18" t="n">
-        <v>22.91874894084165</v>
+        <v>113.8353453427569</v>
       </c>
       <c r="K18" t="n">
-        <v>22.91874894084165</v>
+        <v>395.7329085718995</v>
       </c>
       <c r="L18" t="n">
-        <v>306.538267083757</v>
+        <v>679.3524267148175</v>
       </c>
       <c r="M18" t="n">
-        <v>590.1577852266723</v>
+        <v>679.3524267148175</v>
       </c>
       <c r="N18" t="n">
-        <v>862.317928899167</v>
+        <v>862.3179288991751</v>
       </c>
       <c r="O18" t="n">
-        <v>862.317928899167</v>
+        <v>862.3179288991751</v>
       </c>
       <c r="P18" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="Q18" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R18" t="n">
-        <v>1106.712612176245</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="S18" t="n">
-        <v>960.0638176978921</v>
+        <v>960.0638176979028</v>
       </c>
       <c r="T18" t="n">
-        <v>772.7134214000486</v>
+        <v>960.0638176979028</v>
       </c>
       <c r="U18" t="n">
-        <v>554.2404142138566</v>
+        <v>960.0638176979028</v>
       </c>
       <c r="V18" t="n">
-        <v>325.8447916621906</v>
+        <v>731.6681951462367</v>
       </c>
       <c r="W18" t="n">
-        <v>325.8447916621906</v>
+        <v>731.6681951462367</v>
       </c>
       <c r="X18" t="n">
-        <v>325.8447916621906</v>
+        <v>731.6681951462367</v>
       </c>
       <c r="Y18" t="n">
-        <v>325.8447916621906</v>
+        <v>539.1468687958155</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="C19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="D19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="E19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="F19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="G19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="H19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="I19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="J19" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K19" t="n">
-        <v>88.13463834193588</v>
+        <v>88.1346383419361</v>
       </c>
       <c r="L19" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344958</v>
       </c>
       <c r="M19" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074952</v>
       </c>
       <c r="N19" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792423</v>
       </c>
       <c r="O19" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278661</v>
       </c>
       <c r="P19" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509507</v>
       </c>
       <c r="Q19" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="R19" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="S19" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="T19" t="n">
-        <v>535.4121745224239</v>
+        <v>535.4121745224242</v>
       </c>
       <c r="U19" t="n">
-        <v>525.6710630438544</v>
+        <v>248.2370775219684</v>
       </c>
       <c r="V19" t="n">
-        <v>264.935758602277</v>
+        <v>72.07118619964861</v>
       </c>
       <c r="W19" t="n">
-        <v>254.1712130454659</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="X19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>663.9776349843673</v>
+        <v>663.9776349843735</v>
       </c>
       <c r="C20" t="n">
-        <v>559.477861839061</v>
+        <v>559.477861839066</v>
       </c>
       <c r="D20" t="n">
-        <v>464.0878825881707</v>
+        <v>464.0878825881748</v>
       </c>
       <c r="E20" t="n">
-        <v>346.7361482161639</v>
+        <v>346.7361482161668</v>
       </c>
       <c r="F20" t="n">
-        <v>210.0189430482204</v>
+        <v>210.0189430482222</v>
       </c>
       <c r="G20" t="n">
-        <v>71.96783189840539</v>
+        <v>71.96783189840659</v>
       </c>
       <c r="H20" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I20" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J20" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="K20" t="n">
-        <v>295.0788926133363</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="L20" t="n">
-        <v>295.0788926133363</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="M20" t="n">
-        <v>578.6984107562516</v>
+        <v>430.0190184707958</v>
       </c>
       <c r="N20" t="n">
-        <v>578.6984107562516</v>
+        <v>713.6385366137138</v>
       </c>
       <c r="O20" t="n">
-        <v>862.317928899167</v>
+        <v>986.002029026104</v>
       </c>
       <c r="P20" t="n">
-        <v>1145.937447042082</v>
+        <v>986.002029026104</v>
       </c>
       <c r="Q20" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R20" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="S20" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="T20" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="U20" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="V20" t="n">
-        <v>1086.39215845991</v>
+        <v>1086.39215845992</v>
       </c>
       <c r="W20" t="n">
-        <v>1001.291213839397</v>
+        <v>1001.291213839406</v>
       </c>
       <c r="X20" t="n">
-        <v>896.6950588827763</v>
+        <v>896.6950588827843</v>
       </c>
       <c r="Y20" t="n">
-        <v>780.5871889805004</v>
+        <v>780.5871889805074</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>793.9966779104002</v>
+        <v>754.7718430445736</v>
       </c>
       <c r="C21" t="n">
-        <v>632.2930051513549</v>
+        <v>725.5977023292807</v>
       </c>
       <c r="D21" t="n">
-        <v>493.454368141567</v>
+        <v>586.7590653194927</v>
       </c>
       <c r="E21" t="n">
-        <v>346.4263581984382</v>
+        <v>439.731055376364</v>
       </c>
       <c r="F21" t="n">
-        <v>211.7325601483126</v>
+        <v>305.0372573262384</v>
       </c>
       <c r="G21" t="n">
-        <v>83.3351954471652</v>
+        <v>176.639892625091</v>
       </c>
       <c r="H21" t="n">
-        <v>79.90010480688036</v>
+        <v>79.90010480688058</v>
       </c>
       <c r="I21" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J21" t="n">
-        <v>113.8353453427567</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K21" t="n">
-        <v>113.8353453427567</v>
+        <v>304.8163121699845</v>
       </c>
       <c r="L21" t="n">
-        <v>379.4988091503234</v>
+        <v>588.4358303129025</v>
       </c>
       <c r="M21" t="n">
-        <v>663.1183272932387</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="N21" t="n">
-        <v>663.1183272932387</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="O21" t="n">
-        <v>663.1183272932387</v>
+        <v>663.1183272932467</v>
       </c>
       <c r="P21" t="n">
-        <v>946.7378454361541</v>
+        <v>946.7378454361648</v>
       </c>
       <c r="Q21" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="S21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="T21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="U21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="V21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="W21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="X21" t="n">
-        <v>1145.937447042082</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="Y21" t="n">
-        <v>953.4161206916611</v>
+        <v>914.1912858258346</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.910332624074</v>
+        <v>356.5143377556178</v>
       </c>
       <c r="C22" t="n">
-        <v>520.910332624074</v>
+        <v>186.8983682172981</v>
       </c>
       <c r="D22" t="n">
-        <v>367.8384394518367</v>
+        <v>186.8983682172981</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8294252131555</v>
+        <v>186.8983682172981</v>
       </c>
       <c r="F22" t="n">
-        <v>63.34877023893264</v>
+        <v>186.8983682172981</v>
       </c>
       <c r="G22" t="n">
-        <v>63.34877023893264</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="H22" t="n">
-        <v>63.34877023893264</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="I22" t="n">
-        <v>63.34877023893264</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="J22" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084186</v>
       </c>
       <c r="K22" t="n">
-        <v>88.13463834193588</v>
+        <v>88.1346383419361</v>
       </c>
       <c r="L22" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344958</v>
       </c>
       <c r="M22" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074952</v>
       </c>
       <c r="N22" t="n">
-        <v>549.8976371792421</v>
+        <v>549.8976371792423</v>
       </c>
       <c r="O22" t="n">
-        <v>686.8197138278658</v>
+        <v>686.8197138278661</v>
       </c>
       <c r="P22" t="n">
-        <v>782.6960284509505</v>
+        <v>782.6960284509507</v>
       </c>
       <c r="Q22" t="n">
-        <v>767.4049643885973</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="R22" t="n">
-        <v>761.4090188710813</v>
+        <v>767.4049643885975</v>
       </c>
       <c r="S22" t="n">
-        <v>761.4090188710813</v>
+        <v>558.5332338792839</v>
       </c>
       <c r="T22" t="n">
-        <v>761.4090188710813</v>
+        <v>558.5332338792839</v>
       </c>
       <c r="U22" t="n">
-        <v>751.6679073925118</v>
+        <v>548.7921224007133</v>
       </c>
       <c r="V22" t="n">
-        <v>751.6679073925118</v>
+        <v>548.7921224007133</v>
       </c>
       <c r="W22" t="n">
-        <v>742.945491431797</v>
+        <v>540.0697064399976</v>
       </c>
       <c r="X22" t="n">
-        <v>742.945491431797</v>
+        <v>540.0697064399976</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.910332624074</v>
+        <v>540.0697064399976</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>663.9776349843676</v>
+        <v>663.9776349843735</v>
       </c>
       <c r="C23" t="n">
-        <v>559.477861839061</v>
+        <v>559.4778618390663</v>
       </c>
       <c r="D23" t="n">
-        <v>464.0878825881707</v>
+        <v>464.087882588175</v>
       </c>
       <c r="E23" t="n">
-        <v>346.7361482161637</v>
+        <v>346.736148216167</v>
       </c>
       <c r="F23" t="n">
-        <v>210.0189430482201</v>
+        <v>210.0189430482224</v>
       </c>
       <c r="G23" t="n">
-        <v>71.96783189840538</v>
+        <v>71.96783189840659</v>
       </c>
       <c r="H23" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084187</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084187</v>
       </c>
       <c r="J23" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278778</v>
       </c>
       <c r="K23" t="n">
-        <v>146.3995003278775</v>
+        <v>430.0190184707959</v>
       </c>
       <c r="L23" t="n">
-        <v>430.0190184707929</v>
+        <v>430.0190184707959</v>
       </c>
       <c r="M23" t="n">
-        <v>430.0190184707929</v>
+        <v>430.0190184707959</v>
       </c>
       <c r="N23" t="n">
-        <v>430.0190184707929</v>
+        <v>430.0190184707959</v>
       </c>
       <c r="O23" t="n">
-        <v>713.6385366137083</v>
+        <v>702.3825108831863</v>
       </c>
       <c r="P23" t="n">
-        <v>986.0020290260933</v>
+        <v>986.0020290261044</v>
       </c>
       <c r="Q23" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R23" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="S23" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="T23" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="U23" t="n">
-        <v>1145.937447042083</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="V23" t="n">
-        <v>1086.39215845991</v>
+        <v>1086.39215845992</v>
       </c>
       <c r="W23" t="n">
-        <v>1001.291213839397</v>
+        <v>1001.291213839406</v>
       </c>
       <c r="X23" t="n">
-        <v>896.6950588827765</v>
+        <v>896.6950588827845</v>
       </c>
       <c r="Y23" t="n">
-        <v>780.5871889805006</v>
+        <v>780.5871889805074</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>887.3013750883257</v>
+        <v>662.1642225689683</v>
       </c>
       <c r="C24" t="n">
-        <v>725.5977023292804</v>
+        <v>500.460549809923</v>
       </c>
       <c r="D24" t="n">
-        <v>586.7590653194925</v>
+        <v>361.621912800135</v>
       </c>
       <c r="E24" t="n">
-        <v>439.7310553763638</v>
+        <v>214.5939028570062</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0372573262381</v>
+        <v>79.90010480688059</v>
       </c>
       <c r="G24" t="n">
-        <v>176.6398926250908</v>
+        <v>79.90010480688059</v>
       </c>
       <c r="H24" t="n">
-        <v>79.90010480688036</v>
+        <v>79.90010480688059</v>
       </c>
       <c r="I24" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084187</v>
       </c>
       <c r="J24" t="n">
-        <v>22.91874894084165</v>
+        <v>113.8353453427569</v>
       </c>
       <c r="K24" t="n">
-        <v>22.91874894084165</v>
+        <v>395.7329085718995</v>
       </c>
       <c r="L24" t="n">
-        <v>22.91874894084165</v>
+        <v>663.1183272932471</v>
       </c>
       <c r="M24" t="n">
-        <v>95.87929100740803</v>
+        <v>663.1183272932471</v>
       </c>
       <c r="N24" t="n">
-        <v>379.4988091503234</v>
+        <v>663.1183272932471</v>
       </c>
       <c r="O24" t="n">
-        <v>663.1183272932387</v>
+        <v>663.1183272932471</v>
       </c>
       <c r="P24" t="n">
-        <v>946.7378454361541</v>
+        <v>946.7378454361652</v>
       </c>
       <c r="Q24" t="n">
-        <v>1145.937447042082</v>
+        <v>1145.937447042093</v>
       </c>
       <c r="R24" t="n">
-        <v>1106.712612176245</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="S24" t="n">
-        <v>1106.712612176245</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="T24" t="n">
-        <v>919.3622158784016</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="U24" t="n">
-        <v>919.3622158784016</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="V24" t="n">
-        <v>919.3622158784016</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="W24" t="n">
-        <v>919.3622158784016</v>
+        <v>1106.712612176256</v>
       </c>
       <c r="X24" t="n">
-        <v>919.3622158784016</v>
+        <v>908.7956240540508</v>
       </c>
       <c r="Y24" t="n">
-        <v>919.3622158784016</v>
+        <v>821.5836653502292</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497.6156258900799</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="C25" t="n">
-        <v>327.9996563517601</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="D25" t="n">
-        <v>174.9277631795228</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="E25" t="n">
-        <v>22.91874894084165</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="F25" t="n">
-        <v>22.91874894084165</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="G25" t="n">
-        <v>22.91874894084165</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="H25" t="n">
-        <v>22.91874894084165</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="I25" t="n">
-        <v>22.91874894084165</v>
+        <v>63.34877023893286</v>
       </c>
       <c r="J25" t="n">
-        <v>22.91874894084165</v>
+        <v>22.91874894084187</v>
       </c>
       <c r="K25" t="n">
-        <v>88.1346383419359</v>
+        <v>88.1346383419361</v>
       </c>
       <c r="L25" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344958</v>
       </c>
       <c r="M25" t="n">
-        <v>389.8383804074949</v>
+        <v>389.8383804074952</v>
       </c>
       <c r="N25" t="n">
-        <v>549.8976371792422</v>
+        <v>549.8976371792423</v>
       </c>
       <c r="O25" t="n">
         <v>686.8197138278661</v>
@@ -6169,28 +6169,28 @@
         <v>767.4049643885975</v>
       </c>
       <c r="R25" t="n">
-        <v>767.4049643885975</v>
+        <v>630.3656591126766</v>
       </c>
       <c r="S25" t="n">
-        <v>699.634522013744</v>
+        <v>421.493928603363</v>
       </c>
       <c r="T25" t="n">
-        <v>699.634522013744</v>
+        <v>189.5011387371897</v>
       </c>
       <c r="U25" t="n">
-        <v>689.8934105351744</v>
+        <v>179.7600272586191</v>
       </c>
       <c r="V25" t="n">
-        <v>689.8934105351744</v>
+        <v>179.7600272586191</v>
       </c>
       <c r="W25" t="n">
-        <v>681.1709945744597</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="X25" t="n">
-        <v>681.1709945744597</v>
+        <v>171.0376112979034</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.1709945744597</v>
+        <v>171.0376112979034</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.75026657377</v>
+        <v>1810.750266573769</v>
       </c>
       <c r="C26" t="n">
         <v>1530.836034681928</v>
@@ -6209,13 +6209,13 @@
         <v>1260.031596684503</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2654035659614</v>
+        <v>967.2654035659607</v>
       </c>
       <c r="F26" t="n">
-        <v>655.133739651483</v>
+        <v>655.1337396514823</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6681697551335</v>
+        <v>341.6681697551327</v>
       </c>
       <c r="H26" t="n">
         <v>117.204628051034</v>
@@ -6227,19 +6227,19 @@
         <v>293.7367974864094</v>
       </c>
       <c r="K26" t="n">
-        <v>651.6879571906962</v>
+        <v>711.0249908024841</v>
       </c>
       <c r="L26" t="n">
-        <v>1095.295251354644</v>
+        <v>1254.621623158954</v>
       </c>
       <c r="M26" t="n">
-        <v>1695.032836640285</v>
+        <v>1854.359208444595</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.586042640361</v>
+        <v>2440.912414444671</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.780854554957</v>
+        <v>2888.770192747479</v>
       </c>
       <c r="P26" t="n">
         <v>3204.15318367662</v>
@@ -6251,25 +6251,25 @@
         <v>3513.335395342586</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.228899754599</v>
+        <v>3442.2288997546</v>
       </c>
       <c r="T26" t="n">
         <v>3322.598670684884</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.782372364159</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V26" t="n">
         <v>2934.822625035451</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.307221668404</v>
+        <v>2674.307221668403</v>
       </c>
       <c r="X26" t="n">
         <v>2394.296607965248</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.774279316438</v>
+        <v>2102.774279316437</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7085780007574</v>
+        <v>444.7085780007571</v>
       </c>
       <c r="C28" t="n">
-        <v>377.112135237789</v>
+        <v>377.1121352377888</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0597688409031</v>
+        <v>326.0597688409028</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0702813775732</v>
+        <v>276.070281377573</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6091531787017</v>
+        <v>225.6091531787015</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9865440133844</v>
+        <v>158.9865440133842</v>
       </c>
       <c r="H28" t="n">
         <v>104.1016547704534</v>
@@ -6394,13 +6394,13 @@
         <v>797.5182282693335</v>
       </c>
       <c r="N28" t="n">
-        <v>1057.566823233602</v>
+        <v>1057.566823233603</v>
       </c>
       <c r="O28" t="n">
         <v>1294.478238074748</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.343890890354</v>
+        <v>1490.343890890355</v>
       </c>
       <c r="Q28" t="n">
         <v>1575.346457195364</v>
@@ -6412,22 +6412,22 @@
         <v>1433.474474960832</v>
       </c>
       <c r="T28" t="n">
-        <v>1303.501211870011</v>
+        <v>1303.50121187001</v>
       </c>
       <c r="U28" t="n">
         <v>1118.345641644906</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6298639786801</v>
+        <v>959.6298639786795</v>
       </c>
       <c r="W28" t="n">
-        <v>775.4929892714304</v>
+        <v>775.4929892714301</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2600519421575</v>
+        <v>646.2600519421572</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2444199097858</v>
+        <v>526.2444199097856</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.750266573768</v>
+        <v>1810.75026657377</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.836034681927</v>
+        <v>1530.836034681929</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.031596684502</v>
+        <v>1260.031596684503</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2654035659601</v>
+        <v>967.2654035659617</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1337396514818</v>
+        <v>655.1337396514834</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6681697551323</v>
+        <v>341.6681697551339</v>
       </c>
       <c r="H29" t="n">
         <v>117.204628051034</v>
@@ -6467,19 +6467,19 @@
         <v>711.0249908024842</v>
       </c>
       <c r="L29" t="n">
-        <v>1254.621623158954</v>
+        <v>1195.284589547166</v>
       </c>
       <c r="M29" t="n">
-        <v>1854.359208444595</v>
+        <v>1695.032836640285</v>
       </c>
       <c r="N29" t="n">
-        <v>2440.912414444671</v>
+        <v>2281.586042640361</v>
       </c>
       <c r="O29" t="n">
-        <v>2948.107226359267</v>
+        <v>2788.780854554957</v>
       </c>
       <c r="P29" t="n">
-        <v>3263.490217288408</v>
+        <v>3204.15318367662</v>
       </c>
       <c r="Q29" t="n">
         <v>3464.07793988513</v>
@@ -6488,25 +6488,25 @@
         <v>3513.335395342586</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.228899754599</v>
+        <v>3442.2288997546</v>
       </c>
       <c r="T29" t="n">
-        <v>3322.598670684883</v>
+        <v>3322.598670684884</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.782372364157</v>
+        <v>3169.782372364159</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.82262503545</v>
+        <v>2934.822625035452</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.307221668402</v>
+        <v>2674.307221668404</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.296607965247</v>
+        <v>2394.296607965249</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.774279316436</v>
+        <v>2102.774279316438</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J30" t="n">
-        <v>70.26670790685172</v>
+        <v>161.1833043087668</v>
       </c>
       <c r="K30" t="n">
-        <v>113.1981445974138</v>
+        <v>443.0808675379094</v>
       </c>
       <c r="L30" t="n">
-        <v>549.4876830387511</v>
+        <v>879.3704059792467</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.753510850128</v>
+        <v>1446.636233790624</v>
       </c>
       <c r="N30" t="n">
-        <v>1712.428080178789</v>
+        <v>1513.22847857286</v>
       </c>
       <c r="O30" t="n">
-        <v>2181.845705074321</v>
+        <v>1982.646103468393</v>
       </c>
       <c r="P30" t="n">
-        <v>2545.915615454805</v>
+        <v>2346.716013848877</v>
       </c>
       <c r="Q30" t="n">
         <v>2545.915615454805</v>
@@ -6628,7 +6628,7 @@
         <v>536.8843220038123</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5182282693329</v>
+        <v>797.5182282693335</v>
       </c>
       <c r="N31" t="n">
         <v>1057.566823233602</v>
@@ -6704,16 +6704,16 @@
         <v>711.0249908024844</v>
       </c>
       <c r="L32" t="n">
-        <v>1254.621623158954</v>
+        <v>1195.284589547165</v>
       </c>
       <c r="M32" t="n">
-        <v>1854.359208444595</v>
+        <v>1695.032836640284</v>
       </c>
       <c r="N32" t="n">
-        <v>2440.912414444671</v>
+        <v>2281.58604264036</v>
       </c>
       <c r="O32" t="n">
-        <v>2888.770192747479</v>
+        <v>2788.780854554957</v>
       </c>
       <c r="P32" t="n">
         <v>3204.153183676619</v>
@@ -6725,7 +6725,7 @@
         <v>3513.335395342586</v>
       </c>
       <c r="S32" t="n">
-        <v>3442.228899754598</v>
+        <v>3442.228899754599</v>
       </c>
       <c r="T32" t="n">
         <v>3322.598670684883</v>
@@ -6777,16 +6777,16 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J33" t="n">
-        <v>70.26670790685172</v>
+        <v>161.1833043087668</v>
       </c>
       <c r="K33" t="n">
-        <v>352.1642711359943</v>
+        <v>443.0808675379094</v>
       </c>
       <c r="L33" t="n">
-        <v>788.4538095773316</v>
+        <v>879.3704059792467</v>
       </c>
       <c r="M33" t="n">
-        <v>1355.719637388709</v>
+        <v>1446.636233790624</v>
       </c>
       <c r="N33" t="n">
         <v>1513.22847857286</v>
@@ -6868,7 +6868,7 @@
         <v>797.5182282693337</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.566823233602</v>
+        <v>1057.566823233603</v>
       </c>
       <c r="O34" t="n">
         <v>1294.478238074747</v>
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.059313318405</v>
+        <v>1277.059313318399</v>
       </c>
       <c r="C35" t="n">
-        <v>1074.450795454954</v>
+        <v>1074.450795454949</v>
       </c>
       <c r="D35" t="n">
-        <v>880.9520714859191</v>
+        <v>880.9520714859143</v>
       </c>
       <c r="E35" t="n">
-        <v>665.4915923957674</v>
+        <v>665.4915923957634</v>
       </c>
       <c r="F35" t="n">
-        <v>430.6656425096792</v>
+        <v>430.665642509676</v>
       </c>
       <c r="G35" t="n">
-        <v>194.5057866417185</v>
+        <v>194.5057866417175</v>
       </c>
       <c r="H35" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I35" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J35" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K35" t="n">
-        <v>364.646814089563</v>
+        <v>364.6468140895627</v>
       </c>
       <c r="L35" t="n">
-        <v>808.2541082535106</v>
+        <v>808.2541082535104</v>
       </c>
       <c r="M35" t="n">
         <v>1308.002355346629</v>
@@ -6950,37 +6950,37 @@
         <v>1794.566223154184</v>
       </c>
       <c r="O35" t="n">
-        <v>2201.771696876259</v>
+        <v>2052.014957371352</v>
       </c>
       <c r="P35" t="n">
-        <v>2207.462530284515</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="Q35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S35" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="T35" t="n">
-        <v>2325.073433259179</v>
+        <v>2325.073433259168</v>
       </c>
       <c r="U35" t="n">
-        <v>2249.562848966843</v>
+        <v>2249.562848966833</v>
       </c>
       <c r="V35" t="n">
-        <v>2091.908815666526</v>
+        <v>2091.908815666517</v>
       </c>
       <c r="W35" t="n">
-        <v>1908.699126327869</v>
+        <v>1908.69912632786</v>
       </c>
       <c r="X35" t="n">
-        <v>1705.994226653104</v>
+        <v>1705.994226653096</v>
       </c>
       <c r="Y35" t="n">
-        <v>1491.777612032683</v>
+        <v>1491.777612032676</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.1316669000348</v>
+        <v>911.7305851134939</v>
       </c>
       <c r="C36" t="n">
-        <v>594.4279941409895</v>
+        <v>750.0269123544487</v>
       </c>
       <c r="D36" t="n">
-        <v>455.5893571312016</v>
+        <v>611.1882753446607</v>
       </c>
       <c r="E36" t="n">
-        <v>308.5613471880728</v>
+        <v>464.160265401532</v>
       </c>
       <c r="F36" t="n">
-        <v>173.8675491379472</v>
+        <v>329.4664673514064</v>
       </c>
       <c r="G36" t="n">
-        <v>104.3293148320488</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320486</v>
       </c>
       <c r="I36" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J36" t="n">
-        <v>138.2645553679251</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K36" t="n">
-        <v>420.1621185970678</v>
+        <v>329.2455221951525</v>
       </c>
       <c r="L36" t="n">
-        <v>856.4516570384051</v>
+        <v>765.5350606364898</v>
       </c>
       <c r="M36" t="n">
-        <v>1423.717484849782</v>
+        <v>1332.800888447867</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.128436314092</v>
+        <v>1897.98032340496</v>
       </c>
       <c r="O36" t="n">
-        <v>1804.128436314092</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="P36" t="n">
-        <v>2168.198346694576</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R36" t="n">
-        <v>2328.173113434667</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S36" t="n">
-        <v>2181.524318956314</v>
+        <v>2337.123237169773</v>
       </c>
       <c r="T36" t="n">
-        <v>1994.17392265847</v>
+        <v>2149.772840871929</v>
       </c>
       <c r="U36" t="n">
-        <v>1775.700915472278</v>
+        <v>1931.299833685737</v>
       </c>
       <c r="V36" t="n">
-        <v>1547.305292920612</v>
+        <v>1702.904211134071</v>
       </c>
       <c r="W36" t="n">
-        <v>1305.989424153922</v>
+        <v>1461.588342367381</v>
       </c>
       <c r="X36" t="n">
-        <v>1108.072436031717</v>
+        <v>1263.671354245176</v>
       </c>
       <c r="Y36" t="n">
-        <v>915.5511096812958</v>
+        <v>1071.150027894755</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.4198521382474</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="C37" t="n">
-        <v>200.4198521382474</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="D37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="E37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="F37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="G37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="H37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K37" t="n">
-        <v>112.5638483671043</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L37" t="n">
-        <v>253.623022359664</v>
+        <v>253.6230223596638</v>
       </c>
       <c r="M37" t="n">
-        <v>414.2675904326634</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N37" t="n">
-        <v>574.3268472044106</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O37" t="n">
-        <v>711.2489238530343</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P37" t="n">
-        <v>807.125238476119</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.8341744137657</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="R37" t="n">
-        <v>791.8341744137657</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="S37" t="n">
-        <v>762.2876847081936</v>
+        <v>762.2876847081942</v>
       </c>
       <c r="T37" t="n">
-        <v>709.6201356457618</v>
+        <v>709.6201356457632</v>
       </c>
       <c r="U37" t="n">
-        <v>601.7702794490476</v>
+        <v>601.7702794490497</v>
       </c>
       <c r="V37" t="n">
-        <v>520.3602158112117</v>
+        <v>520.3602158112145</v>
       </c>
       <c r="W37" t="n">
-        <v>299.2871213237499</v>
+        <v>413.5290551323558</v>
       </c>
       <c r="X37" t="n">
-        <v>247.3598980228672</v>
+        <v>182.2765910277316</v>
       </c>
       <c r="Y37" t="n">
-        <v>204.6499800188857</v>
+        <v>51.57808684664747</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.059313318404</v>
+        <v>1277.059313318399</v>
       </c>
       <c r="C38" t="n">
-        <v>1074.450795454953</v>
+        <v>1074.450795454949</v>
       </c>
       <c r="D38" t="n">
-        <v>880.9520714859179</v>
+        <v>880.952071485915</v>
       </c>
       <c r="E38" t="n">
-        <v>665.4915923957662</v>
+        <v>665.4915923957642</v>
       </c>
       <c r="F38" t="n">
-        <v>430.665642509678</v>
+        <v>430.6656425096769</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5057866417185</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H38" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I38" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J38" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K38" t="n">
-        <v>364.646814089563</v>
+        <v>214.8900745846565</v>
       </c>
       <c r="L38" t="n">
-        <v>808.2541082535106</v>
+        <v>658.4973687486041</v>
       </c>
       <c r="M38" t="n">
-        <v>1158.245615841734</v>
+        <v>1158.245615841723</v>
       </c>
       <c r="N38" t="n">
-        <v>1644.809483649288</v>
+        <v>1644.809483649277</v>
       </c>
       <c r="O38" t="n">
-        <v>2052.014957371363</v>
+        <v>2052.014957371352</v>
       </c>
       <c r="P38" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="Q38" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R38" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S38" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="T38" t="n">
-        <v>2325.073433259178</v>
+        <v>2325.073433259168</v>
       </c>
       <c r="U38" t="n">
-        <v>2249.562848966842</v>
+        <v>2249.562848966833</v>
       </c>
       <c r="V38" t="n">
-        <v>2091.908815666525</v>
+        <v>2091.908815666517</v>
       </c>
       <c r="W38" t="n">
-        <v>1908.699126327867</v>
+        <v>1908.69912632786</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.994226653102</v>
+        <v>1705.994226653096</v>
       </c>
       <c r="Y38" t="n">
-        <v>1491.777612032682</v>
+        <v>1491.777612032676</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>756.1316669000344</v>
+        <v>795.3565017658607</v>
       </c>
       <c r="C39" t="n">
-        <v>594.4279941409891</v>
+        <v>633.6528290068154</v>
       </c>
       <c r="D39" t="n">
-        <v>455.5893571312012</v>
+        <v>494.8141919970275</v>
       </c>
       <c r="E39" t="n">
-        <v>308.5613471880724</v>
+        <v>347.7861820538987</v>
       </c>
       <c r="F39" t="n">
-        <v>173.8675491379467</v>
+        <v>213.092384003773</v>
       </c>
       <c r="G39" t="n">
-        <v>47.34795896601008</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H39" t="n">
-        <v>47.34795896601008</v>
+        <v>104.3293148320486</v>
       </c>
       <c r="I39" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J39" t="n">
-        <v>47.34795896601008</v>
+        <v>138.2645553679249</v>
       </c>
       <c r="K39" t="n">
-        <v>109.2943633419534</v>
+        <v>138.2645553679249</v>
       </c>
       <c r="L39" t="n">
-        <v>545.5839017832907</v>
+        <v>574.5540938092622</v>
       </c>
       <c r="M39" t="n">
-        <v>1112.849729594668</v>
+        <v>1141.819921620639</v>
       </c>
       <c r="N39" t="n">
-        <v>1698.780721799043</v>
+        <v>1334.710811418548</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.198346694575</v>
+        <v>1804.128436314081</v>
       </c>
       <c r="P39" t="n">
-        <v>2168.198346694575</v>
+        <v>2168.198346694564</v>
       </c>
       <c r="Q39" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R39" t="n">
-        <v>2328.173113434666</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S39" t="n">
-        <v>2181.524318956313</v>
+        <v>2220.74915382214</v>
       </c>
       <c r="T39" t="n">
-        <v>1994.17392265847</v>
+        <v>2033.398757524296</v>
       </c>
       <c r="U39" t="n">
-        <v>1775.700915472278</v>
+        <v>1814.925750338104</v>
       </c>
       <c r="V39" t="n">
-        <v>1547.305292920612</v>
+        <v>1586.530127786438</v>
       </c>
       <c r="W39" t="n">
-        <v>1305.989424153922</v>
+        <v>1345.214259019748</v>
       </c>
       <c r="X39" t="n">
-        <v>1108.072436031717</v>
+        <v>1147.297270897543</v>
       </c>
       <c r="Y39" t="n">
-        <v>915.5511096812953</v>
+        <v>954.7759445471216</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>329.952850009203</v>
+        <v>314.6617859468567</v>
       </c>
       <c r="C40" t="n">
-        <v>199.3569732046913</v>
+        <v>314.6617859468567</v>
       </c>
       <c r="D40" t="n">
-        <v>199.3569732046913</v>
+        <v>314.6617859468567</v>
       </c>
       <c r="E40" t="n">
-        <v>47.34795896601008</v>
+        <v>314.6617859468567</v>
       </c>
       <c r="F40" t="n">
-        <v>47.34795896601008</v>
+        <v>162.1811309726338</v>
       </c>
       <c r="G40" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="H40" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I40" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K40" t="n">
-        <v>112.5638483671043</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L40" t="n">
-        <v>253.623022359664</v>
+        <v>253.6230223596638</v>
       </c>
       <c r="M40" t="n">
-        <v>414.2675904326634</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N40" t="n">
-        <v>574.3268472044106</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O40" t="n">
-        <v>711.2489238530343</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P40" t="n">
-        <v>807.125238476119</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q40" t="n">
-        <v>807.125238476119</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="R40" t="n">
-        <v>807.125238476119</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="S40" t="n">
-        <v>777.5787487705469</v>
+        <v>762.2876847081943</v>
       </c>
       <c r="T40" t="n">
-        <v>724.9111997081151</v>
+        <v>709.6201356457634</v>
       </c>
       <c r="U40" t="n">
-        <v>617.0613435114009</v>
+        <v>601.7702794490501</v>
       </c>
       <c r="V40" t="n">
-        <v>535.6512798735649</v>
+        <v>520.3602158112151</v>
       </c>
       <c r="W40" t="n">
-        <v>428.8201191947055</v>
+        <v>413.5290551323566</v>
       </c>
       <c r="X40" t="n">
-        <v>376.8928958938228</v>
+        <v>361.6018318314747</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.1829778898413</v>
+        <v>318.8919138274941</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.059313318404</v>
+        <v>1277.059313318399</v>
       </c>
       <c r="C41" t="n">
-        <v>1074.450795454953</v>
+        <v>1074.450795454949</v>
       </c>
       <c r="D41" t="n">
-        <v>880.9520714859177</v>
+        <v>880.952071485915</v>
       </c>
       <c r="E41" t="n">
-        <v>665.491592395766</v>
+        <v>665.4915923957642</v>
       </c>
       <c r="F41" t="n">
-        <v>430.6656425096778</v>
+        <v>430.6656425096769</v>
       </c>
       <c r="G41" t="n">
-        <v>194.5057866417185</v>
+        <v>194.5057866417173</v>
       </c>
       <c r="H41" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I41" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J41" t="n">
-        <v>170.828710353046</v>
+        <v>170.8287103530458</v>
       </c>
       <c r="K41" t="n">
-        <v>170.828710353046</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L41" t="n">
-        <v>498.561950732626</v>
+        <v>931.7348596405462</v>
       </c>
       <c r="M41" t="n">
-        <v>998.3101978257449</v>
+        <v>998.310197825734</v>
       </c>
       <c r="N41" t="n">
-        <v>1484.874065633299</v>
+        <v>1484.874065633288</v>
       </c>
       <c r="O41" t="n">
-        <v>1892.079539355374</v>
+        <v>1892.079539355363</v>
       </c>
       <c r="P41" t="n">
-        <v>2207.462530284515</v>
+        <v>2207.462530284504</v>
       </c>
       <c r="Q41" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R41" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S41" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="T41" t="n">
-        <v>2325.073433259178</v>
+        <v>2325.073433259168</v>
       </c>
       <c r="U41" t="n">
-        <v>2249.562848966842</v>
+        <v>2249.562848966833</v>
       </c>
       <c r="V41" t="n">
-        <v>2091.908815666525</v>
+        <v>2091.908815666517</v>
       </c>
       <c r="W41" t="n">
-        <v>1908.699126327867</v>
+        <v>1908.69912632786</v>
       </c>
       <c r="X41" t="n">
-        <v>1705.994226653102</v>
+        <v>1705.994226653096</v>
       </c>
       <c r="Y41" t="n">
-        <v>1491.777612032681</v>
+        <v>1491.777612032676</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756.1316669000344</v>
+        <v>911.7305851134939</v>
       </c>
       <c r="C42" t="n">
-        <v>594.4279941409891</v>
+        <v>750.0269123544487</v>
       </c>
       <c r="D42" t="n">
-        <v>455.5893571312012</v>
+        <v>611.1882753446607</v>
       </c>
       <c r="E42" t="n">
-        <v>308.5613471880724</v>
+        <v>464.160265401532</v>
       </c>
       <c r="F42" t="n">
-        <v>173.8675491379467</v>
+        <v>329.4664673514064</v>
       </c>
       <c r="G42" t="n">
-        <v>104.3293148320488</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320486</v>
       </c>
       <c r="I42" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J42" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K42" t="n">
-        <v>47.34795896601008</v>
+        <v>329.2455221951525</v>
       </c>
       <c r="L42" t="n">
-        <v>483.6374974073474</v>
+        <v>765.5350606364898</v>
       </c>
       <c r="M42" t="n">
-        <v>1050.903325218725</v>
+        <v>1332.800888447867</v>
       </c>
       <c r="N42" t="n">
-        <v>1636.834317423099</v>
+        <v>1334.710811418548</v>
       </c>
       <c r="O42" t="n">
-        <v>2106.251942318632</v>
+        <v>1804.128436314081</v>
       </c>
       <c r="P42" t="n">
-        <v>2367.397948300504</v>
+        <v>2168.198346694564</v>
       </c>
       <c r="Q42" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R42" t="n">
-        <v>2328.173113434666</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S42" t="n">
-        <v>2181.524318956313</v>
+        <v>2220.74915382214</v>
       </c>
       <c r="T42" t="n">
-        <v>1994.17392265847</v>
+        <v>2149.772840871929</v>
       </c>
       <c r="U42" t="n">
-        <v>1775.700915472278</v>
+        <v>1931.299833685737</v>
       </c>
       <c r="V42" t="n">
-        <v>1547.305292920612</v>
+        <v>1702.904211134071</v>
       </c>
       <c r="W42" t="n">
-        <v>1305.989424153922</v>
+        <v>1461.588342367381</v>
       </c>
       <c r="X42" t="n">
-        <v>1108.072436031717</v>
+        <v>1263.671354245176</v>
       </c>
       <c r="Y42" t="n">
-        <v>915.5511096812953</v>
+        <v>1071.150027894755</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.6276092054615</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="C43" t="n">
-        <v>150.6276092054615</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="D43" t="n">
-        <v>150.6276092054615</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="E43" t="n">
-        <v>150.6276092054615</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="F43" t="n">
-        <v>150.6276092054615</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="G43" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="H43" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K43" t="n">
-        <v>112.5638483671043</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L43" t="n">
-        <v>253.623022359664</v>
+        <v>253.6230223596638</v>
       </c>
       <c r="M43" t="n">
-        <v>414.2675904326634</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N43" t="n">
-        <v>574.3268472044106</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O43" t="n">
-        <v>711.2489238530343</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P43" t="n">
-        <v>807.125238476119</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q43" t="n">
-        <v>807.125238476119</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="R43" t="n">
-        <v>807.125238476119</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="S43" t="n">
-        <v>777.5787487705469</v>
+        <v>762.2876847081943</v>
       </c>
       <c r="T43" t="n">
-        <v>724.9111997081151</v>
+        <v>709.6201356457634</v>
       </c>
       <c r="U43" t="n">
-        <v>617.0613435114009</v>
+        <v>601.7702794490501</v>
       </c>
       <c r="V43" t="n">
-        <v>535.6512798735649</v>
+        <v>341.0349750074727</v>
       </c>
       <c r="W43" t="n">
-        <v>428.8201191947055</v>
+        <v>146.2152281515098</v>
       </c>
       <c r="X43" t="n">
-        <v>197.5676550900813</v>
+        <v>94.28800485062789</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.8577370860998</v>
+        <v>51.57808684664732</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.059313318406</v>
+        <v>1277.059313318399</v>
       </c>
       <c r="C44" t="n">
-        <v>1074.450795454954</v>
+        <v>1074.450795454949</v>
       </c>
       <c r="D44" t="n">
-        <v>880.95207148592</v>
+        <v>880.9520714859152</v>
       </c>
       <c r="E44" t="n">
-        <v>665.4915923957683</v>
+        <v>665.4915923957642</v>
       </c>
       <c r="F44" t="n">
-        <v>430.6656425096803</v>
+        <v>430.6656425096769</v>
       </c>
       <c r="G44" t="n">
-        <v>194.5057866417183</v>
+        <v>194.5057866417174</v>
       </c>
       <c r="H44" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I44" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J44" t="n">
-        <v>170.828710353046</v>
+        <v>170.8287103530458</v>
       </c>
       <c r="K44" t="n">
-        <v>488.1275654765989</v>
+        <v>488.1275654765986</v>
       </c>
       <c r="L44" t="n">
-        <v>931.7348596405465</v>
+        <v>931.7348596405462</v>
       </c>
       <c r="M44" t="n">
-        <v>1431.483106733665</v>
+        <v>1405.515671547809</v>
       </c>
       <c r="N44" t="n">
-        <v>1484.874065633299</v>
+        <v>1892.079539355363</v>
       </c>
       <c r="O44" t="n">
-        <v>1892.079539355374</v>
+        <v>1892.079539355363</v>
       </c>
       <c r="P44" t="n">
-        <v>2207.462530284515</v>
+        <v>2207.462530284504</v>
       </c>
       <c r="Q44" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R44" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="S44" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.073433259178</v>
+        <v>2325.073433259168</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.562848966843</v>
+        <v>2249.562848966833</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.908815666526</v>
+        <v>2091.908815666517</v>
       </c>
       <c r="W44" t="n">
-        <v>1908.699126327868</v>
+        <v>1908.69912632786</v>
       </c>
       <c r="X44" t="n">
-        <v>1705.994226653104</v>
+        <v>1705.994226653096</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.777612032683</v>
+        <v>1491.777612032676</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>756.1316669000344</v>
+        <v>911.7305851134939</v>
       </c>
       <c r="C45" t="n">
-        <v>594.4279941409891</v>
+        <v>750.0269123544487</v>
       </c>
       <c r="D45" t="n">
-        <v>455.5893571312012</v>
+        <v>611.1882753446607</v>
       </c>
       <c r="E45" t="n">
-        <v>308.5613471880724</v>
+        <v>464.160265401532</v>
       </c>
       <c r="F45" t="n">
-        <v>173.8675491379467</v>
+        <v>329.4664673514064</v>
       </c>
       <c r="G45" t="n">
-        <v>104.3293148320488</v>
+        <v>201.069102650259</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320486</v>
       </c>
       <c r="I45" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J45" t="n">
-        <v>138.2645553679251</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K45" t="n">
-        <v>420.1621185970678</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="L45" t="n">
-        <v>856.4516570384051</v>
+        <v>380.7135930087272</v>
       </c>
       <c r="M45" t="n">
-        <v>1334.710811418559</v>
+        <v>947.9794208201045</v>
       </c>
       <c r="N45" t="n">
-        <v>1334.710811418559</v>
+        <v>1533.910413024476</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.128436314092</v>
+        <v>2003.328037920009</v>
       </c>
       <c r="P45" t="n">
-        <v>2168.198346694575</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2367.397948300504</v>
+        <v>2367.397948300493</v>
       </c>
       <c r="R45" t="n">
-        <v>2328.173113434666</v>
+        <v>2337.123237169773</v>
       </c>
       <c r="S45" t="n">
-        <v>2181.524318956313</v>
+        <v>2337.123237169773</v>
       </c>
       <c r="T45" t="n">
-        <v>1994.17392265847</v>
+        <v>2149.772840871929</v>
       </c>
       <c r="U45" t="n">
-        <v>1775.700915472278</v>
+        <v>1931.299833685737</v>
       </c>
       <c r="V45" t="n">
-        <v>1547.305292920612</v>
+        <v>1702.904211134071</v>
       </c>
       <c r="W45" t="n">
-        <v>1305.989424153922</v>
+        <v>1461.588342367381</v>
       </c>
       <c r="X45" t="n">
-        <v>1108.072436031717</v>
+        <v>1263.671354245176</v>
       </c>
       <c r="Y45" t="n">
-        <v>915.5511096812953</v>
+        <v>1071.150027894755</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>314.6617859468507</v>
+        <v>314.661785946856</v>
       </c>
       <c r="C46" t="n">
-        <v>314.6617859468507</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="D46" t="n">
-        <v>161.5898927746134</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="E46" t="n">
-        <v>161.5898927746134</v>
+        <v>199.8286139402327</v>
       </c>
       <c r="F46" t="n">
-        <v>161.5898927746134</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="G46" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="H46" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77798026410107</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="J46" t="n">
-        <v>47.34795896601008</v>
+        <v>47.34795896600986</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5638483671043</v>
+        <v>112.5638483671041</v>
       </c>
       <c r="L46" t="n">
-        <v>253.623022359664</v>
+        <v>253.6230223596638</v>
       </c>
       <c r="M46" t="n">
-        <v>414.2675904326634</v>
+        <v>414.2675904326632</v>
       </c>
       <c r="N46" t="n">
-        <v>574.3268472044106</v>
+        <v>574.3268472044103</v>
       </c>
       <c r="O46" t="n">
-        <v>711.2489238530343</v>
+        <v>711.2489238530341</v>
       </c>
       <c r="P46" t="n">
-        <v>807.125238476119</v>
+        <v>807.1252384761187</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.8341744137657</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="R46" t="n">
-        <v>791.8341744137657</v>
+        <v>791.8341744137655</v>
       </c>
       <c r="S46" t="n">
-        <v>762.2876847081938</v>
+        <v>762.2876847081942</v>
       </c>
       <c r="T46" t="n">
-        <v>709.620135645762</v>
+        <v>709.6201356457632</v>
       </c>
       <c r="U46" t="n">
-        <v>601.770279449048</v>
+        <v>601.7702794490498</v>
       </c>
       <c r="V46" t="n">
-        <v>520.3602158112121</v>
+        <v>520.3602158112146</v>
       </c>
       <c r="W46" t="n">
-        <v>413.5290551323528</v>
+        <v>413.529055132356</v>
       </c>
       <c r="X46" t="n">
-        <v>361.6018318314702</v>
+        <v>361.6018318314741</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.8919138274889</v>
+        <v>318.8919138274935</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8851422783193</v>
+        <v>387.3695040388426</v>
       </c>
       <c r="L11" t="n">
         <v>94.87140299240619</v>
       </c>
       <c r="M11" t="n">
-        <v>366.0557461162341</v>
+        <v>79.57138435571363</v>
       </c>
       <c r="N11" t="n">
         <v>77.07234738451453</v>
       </c>
       <c r="O11" t="n">
-        <v>358.8362141166294</v>
+        <v>358.8362141166348</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2540046772452</v>
+        <v>386.254004677248</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201122</v>
       </c>
       <c r="K12" t="n">
-        <v>59.05979475358186</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>327.8803071789192</v>
+        <v>41.39594541839868</v>
       </c>
       <c r="M12" t="n">
-        <v>32.42079720694208</v>
+        <v>318.9051589674654</v>
       </c>
       <c r="N12" t="n">
-        <v>289.8005356152116</v>
+        <v>307.9379642367788</v>
       </c>
       <c r="O12" t="n">
-        <v>324.3461597540741</v>
+        <v>314.5103824241321</v>
       </c>
       <c r="P12" t="n">
         <v>46.25421500920765</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273695</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.09756801961925</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>387.3695040388399</v>
+        <v>387.3695040388426</v>
       </c>
       <c r="L14" t="n">
-        <v>381.3557647529268</v>
+        <v>94.87140299240619</v>
       </c>
       <c r="M14" t="n">
-        <v>192.9296930996587</v>
+        <v>79.57138435571363</v>
       </c>
       <c r="N14" t="n">
         <v>77.07234738451453</v>
       </c>
       <c r="O14" t="n">
-        <v>370.2059370767614</v>
+        <v>358.8362141166348</v>
       </c>
       <c r="P14" t="n">
-        <v>99.76964291672478</v>
+        <v>386.254004677248</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201122</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>41.39594541839868</v>
+        <v>327.880307178922</v>
       </c>
       <c r="M15" t="n">
-        <v>32.42079720694208</v>
+        <v>107.8576628436534</v>
       </c>
       <c r="N15" t="n">
-        <v>206.2672410463084</v>
+        <v>21.45360247625555</v>
       </c>
       <c r="O15" t="n">
-        <v>324.3461597540742</v>
+        <v>37.86179799355368</v>
       </c>
       <c r="P15" t="n">
-        <v>332.7385767697282</v>
+        <v>332.7385767697309</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.88875526273695</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.09756801961925</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>100.8851422783193</v>
+        <v>387.3695040388426</v>
       </c>
       <c r="L17" t="n">
         <v>94.87140299240619</v>
       </c>
       <c r="M17" t="n">
-        <v>366.0557461162342</v>
+        <v>79.57138435571363</v>
       </c>
       <c r="N17" t="n">
-        <v>363.5567091450351</v>
+        <v>77.07234738451453</v>
       </c>
       <c r="O17" t="n">
-        <v>370.2059370767613</v>
+        <v>358.8362141166348</v>
       </c>
       <c r="P17" t="n">
-        <v>213.1279516606698</v>
+        <v>386.254004677248</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,25 +9240,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>72.08340008201122</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>59.05979475358186</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>327.8803071789193</v>
+        <v>327.880307178922</v>
       </c>
       <c r="M18" t="n">
-        <v>318.9051589674627</v>
+        <v>32.42079720694208</v>
       </c>
       <c r="N18" t="n">
-        <v>296.3628385090784</v>
+        <v>206.2672410463137</v>
       </c>
       <c r="O18" t="n">
         <v>37.86179799355368</v>
       </c>
       <c r="P18" t="n">
-        <v>332.7385767697282</v>
+        <v>332.7385767697309</v>
       </c>
       <c r="Q18" t="n">
         <v>71.88875526273695</v>
@@ -9401,25 +9401,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>251.0663466070655</v>
+        <v>100.8851422783193</v>
       </c>
       <c r="L20" t="n">
-        <v>94.87140299240619</v>
+        <v>381.3557647529294</v>
       </c>
       <c r="M20" t="n">
-        <v>366.0557461162342</v>
+        <v>79.57138435571363</v>
       </c>
       <c r="N20" t="n">
-        <v>77.07234738451453</v>
+        <v>363.5567091450378</v>
       </c>
       <c r="O20" t="n">
-        <v>370.2059370767614</v>
+        <v>358.8362141166349</v>
       </c>
       <c r="P20" t="n">
-        <v>386.2540046772453</v>
+        <v>99.76964291672478</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.4585605689983</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201122</v>
       </c>
       <c r="K21" t="n">
-        <v>59.05979475358186</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>309.742878557355</v>
+        <v>327.880307178922</v>
       </c>
       <c r="M21" t="n">
-        <v>318.9051589674627</v>
+        <v>107.8576628436534</v>
       </c>
       <c r="N21" t="n">
         <v>21.45360247625555</v>
@@ -9495,7 +9495,7 @@
         <v>37.86179799355368</v>
       </c>
       <c r="P21" t="n">
-        <v>332.7385767697282</v>
+        <v>332.7385767697309</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9638,22 +9638,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>100.8851422783193</v>
+        <v>387.3695040388427</v>
       </c>
       <c r="L23" t="n">
-        <v>381.3557647529267</v>
+        <v>94.87140299240619</v>
       </c>
       <c r="M23" t="n">
-        <v>79.57138435571362</v>
+        <v>79.57138435571363</v>
       </c>
       <c r="N23" t="n">
-        <v>77.0723473845145</v>
+        <v>77.07234738451453</v>
       </c>
       <c r="O23" t="n">
-        <v>370.2059370767613</v>
+        <v>358.8362141166351</v>
       </c>
       <c r="P23" t="n">
-        <v>374.8842817171137</v>
+        <v>386.2540046772481</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.08340008201122</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.05979475358185</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>41.39594541839867</v>
+        <v>311.4822269551134</v>
       </c>
       <c r="M24" t="n">
-        <v>106.118314445898</v>
+        <v>32.42079720694208</v>
       </c>
       <c r="N24" t="n">
-        <v>307.9379642367761</v>
+        <v>21.45360247625555</v>
       </c>
       <c r="O24" t="n">
-        <v>324.3461597540742</v>
+        <v>37.86179799355368</v>
       </c>
       <c r="P24" t="n">
-        <v>332.7385767697282</v>
+        <v>332.738576769731</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>72.08340008201122</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4248823198062</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>88.71849619568619</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.88875526273695</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>72.08340008201122</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>180.5534420562064</v>
+        <v>88.71849619568619</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10598,13 +10598,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>343.7708017982289</v>
       </c>
       <c r="P35" t="n">
-        <v>105.5179594907211</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689983</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201122</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10674,16 +10674,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7070888038413</v>
+        <v>592.3419206147333</v>
       </c>
       <c r="O36" t="n">
-        <v>37.86179799355368</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>46.25421500920765</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273695</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,13 +10823,13 @@
         <v>95.09756801961925</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>270.1196024991746</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>433.0981596973534</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.08340008201122</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>121.6319203858478</v>
+        <v>59.05979475358186</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,13 +10911,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>613.3030895513814</v>
+        <v>216.2928851004056</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>46.25421500920765</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11060,13 +11060,13 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>100.8851422783193</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>425.9150801434971</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>584.3675935406823</v>
+        <v>146.8192007043882</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11139,7 +11139,7 @@
         <v>72.08340008201122</v>
       </c>
       <c r="K42" t="n">
-        <v>59.05979475358186</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3030895513815</v>
+        <v>23.38281759815556</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>310.0380594353404</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.88875526273695</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,13 +11303,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>558.1378610297162</v>
       </c>
       <c r="N44" t="n">
-        <v>131.002608899296</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>83.72157531624075</v>
       </c>
       <c r="P44" t="n">
         <v>418.3383206229274</v>
@@ -11373,19 +11373,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201122</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358186</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>378.1289090979112</v>
       </c>
       <c r="M45" t="n">
-        <v>515.5108521363904</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>21.45360247625555</v>
+        <v>613.3030895513787</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273695</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>162.6048326995397</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>195.4354109659792</v>
+        <v>195.4354109659802</v>
       </c>
       <c r="E11" t="n">
-        <v>217.1775485358848</v>
+        <v>217.1775485358857</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>236.3493646238629</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>57.08570238394874</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>78.62715268604782</v>
       </c>
       <c r="V11" t="n">
-        <v>159.9491672039486</v>
+        <v>159.9491672039496</v>
       </c>
       <c r="W11" t="n">
-        <v>185.2492666819055</v>
+        <v>185.2492666819065</v>
       </c>
       <c r="X11" t="n">
-        <v>204.5495249146522</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.9461227108509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.4427899637697</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>204.4541069214522</v>
       </c>
       <c r="D14" t="n">
-        <v>195.4354109659794</v>
+        <v>195.4354109659801</v>
       </c>
       <c r="E14" t="n">
-        <v>217.1775485358849</v>
+        <v>17.38847913436953</v>
       </c>
       <c r="F14" t="n">
-        <v>236.3493646238621</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>237.6699315459153</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.78919542182159</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>159.9491672039488</v>
+        <v>159.9491672039495</v>
       </c>
       <c r="W14" t="n">
-        <v>185.2492666819057</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>204.5495249146531</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>215.9461227108518</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1238475.982457617</v>
+        <v>1238475.982457618</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1400732.465375401</v>
+        <v>1400732.465375402</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1400732.465375401</v>
+        <v>1400732.465375402</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1400732.465375401</v>
+        <v>1400732.465375402</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1478176.762550643</v>
+        <v>1478176.762550642</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1478176.762550643</v>
+        <v>1478176.762550642</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1478176.762550643</v>
+        <v>1478176.762550642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1478176.762550643</v>
+        <v>1478176.762550642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76587.66315073046</v>
+        <v>76587.66315073044</v>
       </c>
       <c r="C2" t="n">
         <v>76587.66315073044</v>
       </c>
       <c r="D2" t="n">
-        <v>76587.66315073043</v>
+        <v>76587.66315073041</v>
       </c>
       <c r="E2" t="n">
-        <v>66928.67981197669</v>
+        <v>66928.6798119767</v>
       </c>
       <c r="F2" t="n">
-        <v>66928.67981197666</v>
+        <v>66928.6798119767</v>
       </c>
       <c r="G2" t="n">
-        <v>76762.40604941819</v>
+        <v>76762.40604941823</v>
       </c>
       <c r="H2" t="n">
         <v>76762.40604941819</v>
       </c>
       <c r="I2" t="n">
+        <v>76762.40604941816</v>
+      </c>
+      <c r="J2" t="n">
+        <v>76762.40604941828</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76762.40604941825</v>
+      </c>
+      <c r="L2" t="n">
+        <v>76762.40604941826</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76762.40604941816</v>
+      </c>
+      <c r="N2" t="n">
         <v>76762.40604941823</v>
       </c>
-      <c r="J2" t="n">
-        <v>76762.40604941826</v>
-      </c>
-      <c r="K2" t="n">
-        <v>76762.40604941826</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>76762.4060494182</v>
+      </c>
+      <c r="P2" t="n">
         <v>76762.40604941823</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76762.40604941822</v>
-      </c>
-      <c r="N2" t="n">
-        <v>76762.40604941825</v>
-      </c>
-      <c r="O2" t="n">
-        <v>76762.40604941826</v>
-      </c>
-      <c r="P2" t="n">
-        <v>76762.40604941819</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>346912.3222696493</v>
+        <v>346912.3222696494</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.949165917359862e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80799.46520607837</v>
+        <v>80799.46520607821</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154853.8671962843</v>
+        <v>154853.8671962835</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.949165917359862e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>80799.4652060784</v>
+        <v>80799.46520607824</v>
       </c>
       <c r="M3" t="n">
-        <v>61226.12551048494</v>
+        <v>61226.12551048553</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>428830.9004778579</v>
       </c>
       <c r="E4" t="n">
-        <v>319178.546396093</v>
+        <v>319178.5463960929</v>
       </c>
       <c r="F4" t="n">
         <v>319178.5463960929</v>
       </c>
       <c r="G4" t="n">
-        <v>375306.2180609187</v>
+        <v>375306.2180609186</v>
       </c>
       <c r="H4" t="n">
-        <v>375306.2180609187</v>
+        <v>375306.2180609186</v>
       </c>
       <c r="I4" t="n">
         <v>375306.2180609187</v>
       </c>
       <c r="J4" t="n">
-        <v>370031.7847048188</v>
+        <v>370031.7847048187</v>
       </c>
       <c r="K4" t="n">
         <v>370031.7847048187</v>
@@ -26451,13 +26451,13 @@
         <v>370451.7424027852</v>
       </c>
       <c r="N4" t="n">
+        <v>370451.7424027853</v>
+      </c>
+      <c r="O4" t="n">
+        <v>370451.7424027853</v>
+      </c>
+      <c r="P4" t="n">
         <v>370451.7424027852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>370451.7424027852</v>
-      </c>
-      <c r="P4" t="n">
-        <v>370451.7424027853</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35340.22236026637</v>
+        <v>35340.22236026645</v>
       </c>
       <c r="F5" t="n">
-        <v>35340.22236026636</v>
+        <v>35340.22236026646</v>
       </c>
       <c r="G5" t="n">
-        <v>43831.13516077861</v>
+        <v>43831.13516077869</v>
       </c>
       <c r="H5" t="n">
-        <v>43831.13516077861</v>
+        <v>43831.13516077869</v>
       </c>
       <c r="I5" t="n">
-        <v>43831.13516077861</v>
+        <v>43831.13516077871</v>
       </c>
       <c r="J5" t="n">
         <v>65216.13502390746</v>
@@ -26500,16 +26500,16 @@
         <v>65216.13502390746</v>
       </c>
       <c r="M5" t="n">
-        <v>54231.90976079402</v>
+        <v>54231.9097607939</v>
       </c>
       <c r="N5" t="n">
-        <v>54231.90976079401</v>
+        <v>54231.90976079392</v>
       </c>
       <c r="O5" t="n">
-        <v>54231.90976079401</v>
+        <v>54231.90976079392</v>
       </c>
       <c r="P5" t="n">
-        <v>54231.90976079402</v>
+        <v>54231.90976079392</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-385870.8373271273</v>
+        <v>-385875.2058995946</v>
       </c>
       <c r="C6" t="n">
-        <v>-385870.8373271274</v>
+        <v>-385875.2058995946</v>
       </c>
       <c r="D6" t="n">
-        <v>-385870.8373271274</v>
+        <v>-385875.2058995946</v>
       </c>
       <c r="E6" t="n">
-        <v>-634502.411214032</v>
+        <v>-634748.254369968</v>
       </c>
       <c r="F6" t="n">
-        <v>-287590.0889443825</v>
+        <v>-287835.9321003187</v>
       </c>
       <c r="G6" t="n">
-        <v>-423174.4123783575</v>
+        <v>-423174.4123783573</v>
       </c>
       <c r="H6" t="n">
         <v>-342374.9471722791</v>
       </c>
       <c r="I6" t="n">
-        <v>-342374.9471722791</v>
+        <v>-342374.9471722793</v>
       </c>
       <c r="J6" t="n">
-        <v>-513339.3808755923</v>
+        <v>-513339.3808755915</v>
       </c>
       <c r="K6" t="n">
-        <v>-358485.5136793078</v>
+        <v>-358485.513679308</v>
       </c>
       <c r="L6" t="n">
-        <v>-439284.9788853865</v>
+        <v>-439284.9788853863</v>
       </c>
       <c r="M6" t="n">
-        <v>-409147.371624646</v>
+        <v>-409147.3716246465</v>
       </c>
       <c r="N6" t="n">
-        <v>-347921.246114161</v>
+        <v>-347921.2461141611</v>
       </c>
       <c r="O6" t="n">
         <v>-347921.246114161</v>
       </c>
       <c r="P6" t="n">
-        <v>-347921.2461141612</v>
+        <v>-347921.2461141609</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F2" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="H2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="I2" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="J2" t="n">
         <v>100.9993315075978</v>
@@ -26716,16 +26716,16 @@
         <v>100.9993315075979</v>
       </c>
       <c r="M2" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="N2" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="O2" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="P2" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>152.4093676232987</v>
       </c>
       <c r="I3" t="n">
-        <v>152.4093676232988</v>
+        <v>152.4093676232987</v>
       </c>
       <c r="J3" t="n">
         <v>152.4093676232988</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605205</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="F4" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="G4" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="H4" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="I4" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605234</v>
       </c>
       <c r="J4" t="n">
         <v>878.3338488356466</v>
@@ -26820,16 +26820,16 @@
         <v>878.3338488356464</v>
       </c>
       <c r="M4" t="n">
-        <v>591.849487075126</v>
+        <v>591.8494870751232</v>
       </c>
       <c r="N4" t="n">
-        <v>591.8494870751259</v>
+        <v>591.8494870751232</v>
       </c>
       <c r="O4" t="n">
-        <v>591.8494870751259</v>
+        <v>591.8494870751232</v>
       </c>
       <c r="P4" t="n">
-        <v>591.8494870751259</v>
+        <v>591.8494870751232</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.936457396699828e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>100.999331507598</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.911686282715098e-14</v>
+        <v>4.936457396699828e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.999331507598</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M2" t="n">
-        <v>76.53265688810617</v>
+        <v>76.53265688810691</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605205</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.849487075126</v>
+        <v>591.8494870751232</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.936457396699828e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.999331507598</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.936457396699828e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.4843617605205</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="E11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="H11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="I11" t="n">
         <v>147.4678724503383</v>
@@ -28141,22 +28141,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -28184,10 +28184,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.41154230737833</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>145.1823065335695</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>127.9512879344254</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y12" t="n">
-        <v>173.6603141590694</v>
+        <v>158.8811706675463</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
@@ -28269,7 +28269,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,25 +28296,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="T13" t="n">
-        <v>173.6603141590694</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>131.5599146667402</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V13" t="n">
-        <v>173.6603141590694</v>
+        <v>113.6533335001905</v>
       </c>
       <c r="W13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.6603141590694</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="E14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="F14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="G14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="I14" t="n">
         <v>147.4678724503383</v>
@@ -28378,22 +28378,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28412,19 +28412,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.41154230737833</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>15.44020153229926</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X15" t="n">
-        <v>125.6899002564186</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28497,13 +28497,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9557145812619</v>
+        <v>106.9487339223834</v>
       </c>
       <c r="H16" t="n">
         <v>155.3353718580994</v>
       </c>
       <c r="I16" t="n">
-        <v>74.48894824367953</v>
+        <v>134.4959289025635</v>
       </c>
       <c r="J16" t="n">
         <v>40.02572108511008</v>
@@ -28533,25 +28533,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6603141590693</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="U16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="V16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="W16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
       <c r="Y16" t="n">
-        <v>173.6603141590693</v>
+        <v>173.6603141590685</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="C17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="D17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="E17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="F17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="G17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="H17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="I17" t="n">
         <v>147.4678724503383</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="W17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>135.2951304366588</v>
+        <v>17.4643082128926</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.41154230737833</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,10 +28694,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J19" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28776,16 +28776,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>274.6596456666672</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>83.72371898806497</v>
       </c>
       <c r="W19" t="n">
-        <v>272.6379373665319</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="C20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="D20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="E20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="F20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="G20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="I20" t="n">
         <v>147.4678724503383</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="W20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>131.2042367233148</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>92.37165020614634</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.83258651717897</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>145.1823065335695</v>
@@ -28956,22 +28956,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9557145812619</v>
+        <v>4.615891497570203</v>
       </c>
       <c r="H22" t="n">
         <v>155.3353718580994</v>
@@ -28980,7 +28980,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.7329261608209</v>
+        <v>135.6689122231617</v>
       </c>
       <c r="S22" t="n">
-        <v>206.7830132042204</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6728619675116</v>
       </c>
       <c r="U22" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="C23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="D23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="E23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="F23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="G23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="H23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="I23" t="n">
         <v>147.4678724503383</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="W23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126.0850159712732</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>145.1823065335695</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U24" t="n">
         <v>216.28827711433</v>
@@ -29180,10 +29180,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>104.2562739701336</v>
       </c>
     </row>
     <row r="25">
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29214,10 +29214,10 @@
         <v>155.3353718580994</v>
       </c>
       <c r="I25" t="n">
-        <v>134.4959289025635</v>
+        <v>27.88397625418264</v>
       </c>
       <c r="J25" t="n">
-        <v>40.02572108511008</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,22 +29241,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6689122231617</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.6902752531155</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6728619675116</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>274.6596456666672</v>
+        <v>274.6596456666663</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29299,10 +29299,10 @@
         <v>100.9993315075978</v>
       </c>
       <c r="K26" t="n">
-        <v>41.06293391993324</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="M26" t="n">
         <v>100.9993315075978</v>
@@ -29311,10 +29311,10 @@
         <v>100.9993315075978</v>
       </c>
       <c r="O26" t="n">
-        <v>100.9993315075978</v>
+        <v>41.06293391993307</v>
       </c>
       <c r="P26" t="n">
-        <v>100.9993315075978</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>100.9993315075978</v>
@@ -29539,10 +29539,10 @@
         <v>100.9993315075978</v>
       </c>
       <c r="L29" t="n">
-        <v>100.9993315075978</v>
+        <v>41.06293391993302</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9993315075978</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>100.9993315075978</v>
@@ -29551,10 +29551,10 @@
         <v>100.9993315075978</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.0629339199327</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="R29" t="n">
         <v>100.9993315075978</v>
@@ -29700,7 +29700,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9993315075972</v>
+        <v>100.9993315075978</v>
       </c>
       <c r="N31" t="n">
         <v>100.9993315075978</v>
@@ -29709,7 +29709,7 @@
         <v>100.9993315075978</v>
       </c>
       <c r="P31" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075974</v>
       </c>
       <c r="Q31" t="n">
         <v>100.9993315075978</v>
@@ -29776,19 +29776,19 @@
         <v>100.9993315075979</v>
       </c>
       <c r="L32" t="n">
-        <v>100.9993315075979</v>
+        <v>41.06293391993245</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9993315075979</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>100.9993315075979</v>
       </c>
       <c r="O32" t="n">
-        <v>41.06293391993256</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="Q32" t="n">
         <v>100.9993315075979</v>
@@ -29940,10 +29940,10 @@
         <v>100.9993315075979</v>
       </c>
       <c r="N34" t="n">
-        <v>100.9993315075968</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9993315075979</v>
+        <v>100.9993315075967</v>
       </c>
       <c r="P34" t="n">
         <v>100.9993315075979</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="C35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="D35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="E35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="F35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="G35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="H35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="I35" t="n">
         <v>147.4678724503383</v>
@@ -30037,22 +30037,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="U35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="V35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="W35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="X35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
     </row>
     <row r="36">
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>58.27053909129648</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>115.2103425141568</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30192,25 +30192,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S37" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="T37" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="U37" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="V37" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="W37" t="n">
-        <v>64.43247392518776</v>
+        <v>177.5319883957048</v>
       </c>
       <c r="X37" t="n">
-        <v>177.531988395704</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.531988395704</v>
+        <v>90.4232880803724</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I38" t="n">
         <v>147.4678724503383</v>
@@ -30274,22 +30274,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.858996783918613</v>
+        <v>115.210342514157</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.41154230737833</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30378,22 +30378,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C40" t="n">
-        <v>38.62989180646991</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9557145812619</v>
+        <v>53.27087429470417</v>
       </c>
       <c r="H40" t="n">
         <v>155.3353718580994</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.13815342172974</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I41" t="n">
         <v>147.4678724503383</v>
@@ -30511,22 +30511,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="42">
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>58.27053909129692</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.83258651717897</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>115.2103425141569</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>104.7345819293151</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H43" t="n">
         <v>155.3353718580994</v>
@@ -30639,7 +30639,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.13815342172974</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S43" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T43" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U43" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V43" t="n">
-        <v>177.531988395704</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>177.531988395704</v>
+        <v>90.42328808037155</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.531988395704</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="D44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="E44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="F44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="G44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="I44" t="n">
         <v>147.4678724503383</v>
@@ -30748,22 +30748,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
     <row r="45">
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>58.27053909129692</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.86062249776629</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>54.23496955637947</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.88192119585469</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H46" t="n">
         <v>155.3353718580994</v>
@@ -30876,7 +30876,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.02572108511008</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="T46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="U46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="V46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="W46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="X46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957049</v>
       </c>
     </row>
   </sheetData>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6127009753700449</v>
+        <v>0.6127009753700448</v>
       </c>
       <c r="H23" t="n">
-        <v>6.274823864008473</v>
+        <v>6.274823864008472</v>
       </c>
       <c r="I23" t="n">
-        <v>23.62115435295368</v>
+        <v>23.62115435295367</v>
       </c>
       <c r="J23" t="n">
-        <v>52.00222940831339</v>
+        <v>52.00222940831338</v>
       </c>
       <c r="K23" t="n">
-        <v>77.93786169572741</v>
+        <v>77.93786169572739</v>
       </c>
       <c r="L23" t="n">
-        <v>96.68880917070844</v>
+        <v>96.68880917070842</v>
       </c>
       <c r="M23" t="n">
         <v>107.5849301414455</v>
@@ -32725,22 +32725,22 @@
         <v>103.2332214638797</v>
       </c>
       <c r="P23" t="n">
-        <v>88.10716613443174</v>
+        <v>88.10716613443172</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.16481245399198</v>
+        <v>66.16481245399197</v>
       </c>
       <c r="R23" t="n">
-        <v>38.48757764408862</v>
+        <v>38.48757764408861</v>
       </c>
       <c r="S23" t="n">
         <v>13.96192347624491</v>
       </c>
       <c r="T23" t="n">
-        <v>2.682098519682373</v>
+        <v>2.682098519682372</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04901607802960358</v>
+        <v>0.04901607802960357</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3278239228123785</v>
+        <v>0.3278239228123784</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166088938740604</v>
+        <v>3.166088938740603</v>
       </c>
       <c r="I24" t="n">
         <v>11.28692014946128</v>
       </c>
       <c r="J24" t="n">
-        <v>30.97217158465547</v>
+        <v>30.97217158465546</v>
       </c>
       <c r="K24" t="n">
-        <v>52.93637441308483</v>
+        <v>52.93637441308481</v>
       </c>
       <c r="L24" t="n">
-        <v>71.17948815274912</v>
+        <v>71.1794881527491</v>
       </c>
       <c r="M24" t="n">
-        <v>83.06310535469783</v>
+        <v>83.06310535469781</v>
       </c>
       <c r="N24" t="n">
-        <v>85.26153859145278</v>
+        <v>85.26153859145276</v>
       </c>
       <c r="O24" t="n">
-        <v>77.99765061755744</v>
+        <v>77.99765061755743</v>
       </c>
       <c r="P24" t="n">
-        <v>62.59999101493569</v>
+        <v>62.59999101493568</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.84643618215555</v>
+        <v>41.84643618215554</v>
       </c>
       <c r="R24" t="n">
         <v>20.3538396988247</v>
       </c>
       <c r="S24" t="n">
-        <v>6.089185583817641</v>
+        <v>6.089185583817639</v>
       </c>
       <c r="T24" t="n">
-        <v>1.321360460809543</v>
+        <v>1.321360460809542</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02156736334291965</v>
+        <v>0.02156736334291964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,25 +32862,25 @@
         <v>2.443546910419447</v>
       </c>
       <c r="I25" t="n">
-        <v>8.265085050784794</v>
+        <v>8.265085050784792</v>
       </c>
       <c r="J25" t="n">
-        <v>19.43094511485893</v>
+        <v>19.43094511485892</v>
       </c>
       <c r="K25" t="n">
-        <v>31.93101177419275</v>
+        <v>31.93101177419274</v>
       </c>
       <c r="L25" t="n">
-        <v>40.86070160838407</v>
+        <v>40.86070160838406</v>
       </c>
       <c r="M25" t="n">
-        <v>43.08188075292689</v>
+        <v>43.08188075292688</v>
       </c>
       <c r="N25" t="n">
-        <v>42.05748992136049</v>
+        <v>42.05748992136048</v>
       </c>
       <c r="O25" t="n">
-        <v>38.84689914437787</v>
+        <v>38.84689914437786</v>
       </c>
       <c r="P25" t="n">
         <v>33.24023322721911</v>
@@ -32892,13 +32892,13 @@
         <v>12.35765134860386</v>
       </c>
       <c r="S25" t="n">
-        <v>4.789651766128912</v>
+        <v>4.789651766128911</v>
       </c>
       <c r="T25" t="n">
         <v>1.1743016849664</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01499108533999662</v>
+        <v>0.01499108533999661</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>124.7280317040767</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>286.4843617605205</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>275.1146388003887</v>
+        <v>275.114638800394</v>
       </c>
       <c r="P11" t="n">
-        <v>286.4843617605205</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5509272888778</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.83494586052026</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L12" t="n">
-        <v>286.4843617605205</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="N12" t="n">
-        <v>268.346933138956</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="O12" t="n">
-        <v>286.4843617605205</v>
+        <v>276.6485844305784</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.2117187938669</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7280317040767</v>
       </c>
       <c r="K14" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="L14" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.358308743945</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>286.4843617605206</v>
+        <v>275.114638800394</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q14" t="n">
         <v>161.5509272888778</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.83494586052026</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.7450133627704</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>75.43686563671136</v>
       </c>
       <c r="N15" t="n">
-        <v>184.8136385700529</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.7280317040767</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>286.4843617605206</v>
+        <v>275.114638800394</v>
       </c>
       <c r="P17" t="n">
-        <v>113.358308743945</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q17" t="n">
         <v>161.5509272888778</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>91.83494586052026</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L18" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="M18" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.9092360328229</v>
+        <v>184.8136385700581</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>124.7280317040767</v>
       </c>
       <c r="K20" t="n">
-        <v>150.1812043287462</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="M20" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="O20" t="n">
-        <v>286.4843617605206</v>
+        <v>275.1146388003941</v>
       </c>
       <c r="P20" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>161.5509272888778</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.83494586052026</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L21" t="n">
-        <v>268.3469331389563</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="M21" t="n">
-        <v>286.4843617605206</v>
+        <v>75.43686563671136</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605233</v>
       </c>
       <c r="Q21" t="n">
         <v>201.2117187938669</v>
@@ -36358,10 +36358,10 @@
         <v>124.7280317040767</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>286.4843617605234</v>
       </c>
       <c r="L23" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,13 +36370,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>286.4843617605206</v>
+        <v>275.1146388003944</v>
       </c>
       <c r="P23" t="n">
-        <v>275.1146388003889</v>
+        <v>286.4843617605234</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5509272888779</v>
+        <v>161.5509272888778</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.83494586052026</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>270.0862815367148</v>
       </c>
       <c r="M24" t="n">
-        <v>73.69751723895594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>286.4843617605206</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>286.4843617605206</v>
+        <v>286.4843617605234</v>
       </c>
       <c r="Q24" t="n">
         <v>201.2117187938669</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.87463575868105</v>
+        <v>65.87463575868104</v>
       </c>
       <c r="L25" t="n">
         <v>142.4840141338987</v>
@@ -36531,7 +36531,7 @@
         <v>138.3051279279028</v>
       </c>
       <c r="P25" t="n">
-        <v>96.84476224554012</v>
+        <v>96.84476224554011</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>225.7273632116745</v>
       </c>
       <c r="K26" t="n">
-        <v>361.5668279841281</v>
+        <v>421.5032255717927</v>
       </c>
       <c r="L26" t="n">
-        <v>448.0881759231794</v>
+        <v>549.0875074307771</v>
       </c>
       <c r="M26" t="n">
         <v>605.7955406925665</v>
@@ -36607,10 +36607,10 @@
         <v>592.4779858586626</v>
       </c>
       <c r="O26" t="n">
-        <v>512.3179918329261</v>
+        <v>452.3815942452612</v>
       </c>
       <c r="P26" t="n">
-        <v>419.5680092138005</v>
+        <v>318.5686777062027</v>
       </c>
       <c r="Q26" t="n">
         <v>262.5502587964756</v>
@@ -36835,10 +36835,10 @@
         <v>421.5032255717927</v>
       </c>
       <c r="L29" t="n">
-        <v>549.0875074307772</v>
+        <v>489.1511098431124</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7955406925664</v>
+        <v>504.7962091849686</v>
       </c>
       <c r="N29" t="n">
         <v>592.4779858586627</v>
@@ -36847,10 +36847,10 @@
         <v>512.3179918329261</v>
       </c>
       <c r="P29" t="n">
-        <v>318.5686777062027</v>
+        <v>419.5680092138005</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6138612088105</v>
+        <v>262.5502587964756</v>
       </c>
       <c r="R29" t="n">
         <v>49.75500551258126</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>91.83494586052026</v>
       </c>
       <c r="K30" t="n">
-        <v>43.36508756622435</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L30" t="n">
         <v>440.6965034760983</v>
@@ -36920,7 +36920,7 @@
         <v>572.9957856680578</v>
       </c>
       <c r="N30" t="n">
-        <v>601.691484170364</v>
+        <v>67.26489371943063</v>
       </c>
       <c r="O30" t="n">
         <v>474.1592170661947</v>
@@ -36929,7 +36929,7 @@
         <v>367.7473842227107</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>243.4833456414965</v>
       </c>
       <c r="M31" t="n">
-        <v>263.2665719853744</v>
+        <v>263.266571985375</v>
       </c>
       <c r="N31" t="n">
         <v>262.6753484487567</v>
@@ -37005,7 +37005,7 @@
         <v>239.3044594355006</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8440937531379</v>
+        <v>197.8440937531375</v>
       </c>
       <c r="Q31" t="n">
         <v>85.86117808586809</v>
@@ -37072,19 +37072,19 @@
         <v>421.5032255717927</v>
       </c>
       <c r="L32" t="n">
-        <v>549.0875074307772</v>
+        <v>489.1511098431118</v>
       </c>
       <c r="M32" t="n">
-        <v>605.7955406925664</v>
+        <v>504.7962091849686</v>
       </c>
       <c r="N32" t="n">
         <v>592.4779858586627</v>
       </c>
       <c r="O32" t="n">
-        <v>452.3815942452607</v>
+        <v>512.3179918329261</v>
       </c>
       <c r="P32" t="n">
-        <v>318.5686777062027</v>
+        <v>419.5680092138006</v>
       </c>
       <c r="Q32" t="n">
         <v>262.5502587964757</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.83494586052026</v>
       </c>
       <c r="K33" t="n">
         <v>284.7450133627704</v>
@@ -37157,7 +37157,7 @@
         <v>572.9957856680578</v>
       </c>
       <c r="N33" t="n">
-        <v>159.0998395799509</v>
+        <v>67.26489371943063</v>
       </c>
       <c r="O33" t="n">
         <v>474.1592170661947</v>
@@ -37236,10 +37236,10 @@
         <v>263.266571985375</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6753484487556</v>
+        <v>262.6753484487567</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3044594355007</v>
+        <v>239.3044594354995</v>
       </c>
       <c r="P34" t="n">
         <v>197.844093753138</v>
@@ -37318,13 +37318,13 @@
         <v>491.4786543510648</v>
       </c>
       <c r="O35" t="n">
-        <v>411.3186603253282</v>
+        <v>260.0492264819882</v>
       </c>
       <c r="P35" t="n">
-        <v>5.74831657399633</v>
+        <v>318.5686777062027</v>
       </c>
       <c r="Q35" t="n">
-        <v>161.5509272888778</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.83494586052026</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>284.7450133627704</v>
@@ -37394,16 +37394,16 @@
         <v>572.9957856680578</v>
       </c>
       <c r="N36" t="n">
-        <v>384.2534863275857</v>
+        <v>570.8883181384778</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>474.1592170661947</v>
       </c>
       <c r="P36" t="n">
-        <v>367.7473842227107</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.2117187938669</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>320.5038940641948</v>
+        <v>169.2344602208552</v>
       </c>
       <c r="L38" t="n">
         <v>448.0881759231794</v>
       </c>
       <c r="M38" t="n">
-        <v>353.5267753416398</v>
+        <v>504.7962091849686</v>
       </c>
       <c r="N38" t="n">
         <v>491.4786543510648</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.83494586052026</v>
       </c>
       <c r="K39" t="n">
-        <v>62.57212563226597</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>440.6965034760983</v>
@@ -37631,13 +37631,13 @@
         <v>572.9957856680578</v>
       </c>
       <c r="N39" t="n">
-        <v>591.8494870751259</v>
+        <v>194.8392826241501</v>
       </c>
       <c r="O39" t="n">
         <v>474.1592170661947</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>367.7473842227107</v>
       </c>
       <c r="Q39" t="n">
         <v>201.2117187938669</v>
@@ -37780,13 +37780,13 @@
         <v>124.7280317040767</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>320.5038940641948</v>
       </c>
       <c r="L41" t="n">
-        <v>331.0436771510909</v>
+        <v>448.0881759231794</v>
       </c>
       <c r="M41" t="n">
-        <v>504.7962091849686</v>
+        <v>67.24781634867452</v>
       </c>
       <c r="N41" t="n">
         <v>491.4786543510648</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>284.7450133627704</v>
       </c>
       <c r="L42" t="n">
         <v>440.6965034760983</v>
@@ -37868,16 +37868,16 @@
         <v>572.9957856680578</v>
       </c>
       <c r="N42" t="n">
-        <v>591.8494870751259</v>
+        <v>1.929215121900009</v>
       </c>
       <c r="O42" t="n">
         <v>474.1592170661947</v>
       </c>
       <c r="P42" t="n">
-        <v>263.7838444261328</v>
+        <v>367.7473842227107</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>201.2117187938669</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>448.0881759231794</v>
       </c>
       <c r="M44" t="n">
-        <v>504.7962091849686</v>
+        <v>478.5664766740026</v>
       </c>
       <c r="N44" t="n">
-        <v>53.93026151478151</v>
+        <v>491.4786543510648</v>
       </c>
       <c r="O44" t="n">
-        <v>411.3186603253282</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>318.5686777062027</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.83494586052026</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>284.7450133627704</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>440.6965034760983</v>
+        <v>336.7329636795125</v>
       </c>
       <c r="M45" t="n">
-        <v>483.0900549294483</v>
+        <v>572.9957856680578</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>591.8494870751232</v>
       </c>
       <c r="O45" t="n">
         <v>474.1592170661947</v>
@@ -38114,7 +38114,7 @@
         <v>367.7473842227107</v>
       </c>
       <c r="Q45" t="n">
-        <v>201.2117187938669</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
